--- a/raw_data/20200818_saline/20200818_Sensor0_Test_9.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_9.xlsx
@@ -1,1414 +1,1830 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F9A74E-A81D-4DE0-8A49-4817D94E4331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>7202.876393</v>
+        <v>7202.8763929999996</v>
       </c>
       <c r="B2" s="1">
-        <v>2.000799</v>
+        <v>2.0007990000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>899.623000</v>
+        <v>899.62300000000005</v>
       </c>
       <c r="D2" s="1">
-        <v>-190.762000</v>
+        <v>-190.762</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>7213.649004</v>
+        <v>7213.6490039999999</v>
       </c>
       <c r="G2" s="1">
-        <v>2.003791</v>
+        <v>2.0037910000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>917.476000</v>
+        <v>917.476</v>
       </c>
       <c r="I2" s="1">
-        <v>-162.970000</v>
+        <v>-162.97</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>7223.904781</v>
+        <v>7223.9047810000002</v>
       </c>
       <c r="L2" s="1">
-        <v>2.006640</v>
+        <v>2.00664</v>
       </c>
       <c r="M2" s="1">
-        <v>940.687000</v>
+        <v>940.68700000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-117.693000</v>
+        <v>-117.693</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>7234.101039</v>
+        <v>7234.1010390000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>2.009473</v>
+        <v>2.0094729999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>947.466000</v>
+        <v>947.46600000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.670000</v>
+        <v>-102.67</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>7244.305234</v>
+        <v>7244.3052340000004</v>
       </c>
       <c r="V2" s="1">
-        <v>2.012307</v>
+        <v>2.0123069999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>954.116000</v>
+        <v>954.11599999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.103400</v>
+        <v>-89.103399999999993</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>7254.397334</v>
+        <v>7254.3973340000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>2.015110</v>
+        <v>2.01511</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.647000</v>
+        <v>961.64700000000005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.782400</v>
+        <v>-79.782399999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>7264.970055</v>
+        <v>7264.9700549999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>2.018047</v>
+        <v>2.0180470000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.571000</v>
+        <v>966.57100000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.378400</v>
+        <v>-79.378399999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>7275.367226</v>
+        <v>7275.3672260000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>2.020935</v>
+        <v>2.0209350000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.550000</v>
+        <v>974.55</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.037400</v>
+        <v>-87.037400000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>7285.628428</v>
       </c>
       <c r="AP2" s="1">
-        <v>2.023786</v>
+        <v>2.0237859999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.709000</v>
+        <v>983.70899999999995</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.782000</v>
+        <v>-101.782</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>7297.036910</v>
+        <v>7297.0369099999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>2.026955</v>
+        <v>2.0269550000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>995.033000</v>
+        <v>995.03300000000002</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.056000</v>
+        <v>-123.056</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>7307.789183</v>
+        <v>7307.7891829999999</v>
       </c>
       <c r="AZ2" s="1">
         <v>2.029941</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.560000</v>
+        <v>1004.56</v>
       </c>
       <c r="BB2" s="1">
-        <v>-141.587000</v>
+        <v>-141.58699999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>7318.788502</v>
+        <v>7318.7885020000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.032997</v>
+        <v>2.0329969999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG2" s="1">
-        <v>-225.526000</v>
+        <v>-225.52600000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>7329.808609</v>
+        <v>7329.8086089999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2.036058</v>
+        <v>2.0360580000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1127.300000</v>
+        <v>1127.3</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.827000</v>
+        <v>-360.827</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>7340.890690</v>
+        <v>7340.8906900000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>2.039136</v>
+        <v>2.0391360000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1257.220000</v>
+        <v>1257.22</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-570.605000</v>
+        <v>-570.60500000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>7351.534868</v>
+        <v>7351.5348679999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>2.042093</v>
+        <v>2.0420929999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1403.540000</v>
+        <v>1403.54</v>
       </c>
       <c r="BV2" s="1">
-        <v>-794.670000</v>
+        <v>-794.67</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>7362.159174</v>
+        <v>7362.1591740000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>2.045044</v>
+        <v>2.0450439999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1565.090000</v>
+        <v>1565.09</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1029.000000</v>
+        <v>-1029</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>7373.162888</v>
+        <v>7373.1628879999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>2.048101</v>
+        <v>2.0481009999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1974.840000</v>
+        <v>1974.84</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1575.230000</v>
+        <v>-1575.23</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>7203.616957</v>
+        <v>7203.6169570000002</v>
       </c>
       <c r="B3" s="1">
-        <v>2.001005</v>
+        <v>2.0010050000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>899.823000</v>
+        <v>899.82299999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-190.812000</v>
+        <v>-190.81200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>7214.065642</v>
+        <v>7214.0656419999996</v>
       </c>
       <c r="G3" s="1">
-        <v>2.003907</v>
+        <v>2.0039069999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>917.573000</v>
+        <v>917.57299999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-162.969000</v>
+        <v>-162.96899999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>7224.253966</v>
+        <v>7224.2539660000002</v>
       </c>
       <c r="L3" s="1">
-        <v>2.006737</v>
+        <v>2.0067370000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>940.513000</v>
+        <v>940.51300000000003</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.751000</v>
+        <v>-117.751</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>7234.453199</v>
+        <v>7234.4531989999996</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.009570</v>
+        <v>2.0095700000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>947.471000</v>
+        <v>947.471</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.704000</v>
+        <v>-102.70399999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>7244.656898</v>
+        <v>7244.6568980000002</v>
       </c>
       <c r="V3" s="1">
-        <v>2.012405</v>
+        <v>2.0124050000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>954.095000</v>
+        <v>954.09500000000003</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.199700</v>
+        <v>-89.199700000000007</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>7254.782725</v>
       </c>
       <c r="AA3" s="1">
-        <v>2.015217</v>
+        <v>2.0152169999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.505000</v>
+        <v>961.505</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.803300</v>
+        <v>-79.803299999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>7265.377767</v>
+        <v>7265.3777669999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>2.018160</v>
+        <v>2.01816</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.560000</v>
+        <v>966.56</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.364800</v>
+        <v>-79.364800000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>7275.480281</v>
+        <v>7275.4802810000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>2.020967</v>
+        <v>2.0209670000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.535000</v>
+        <v>974.53499999999997</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.008700</v>
+        <v>-87.008700000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>7286.074855</v>
+        <v>7286.0748549999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>2.023910</v>
+        <v>2.0239099999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.724000</v>
+        <v>983.72400000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.783000</v>
+        <v>-101.783</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>7297.421836</v>
+        <v>7297.4218360000004</v>
       </c>
       <c r="AU3" s="1">
-        <v>2.027062</v>
+        <v>2.0270619999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>995.029000</v>
+        <v>995.029</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.059000</v>
+        <v>-123.059</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>7308.179038</v>
+        <v>7308.1790380000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>2.030050</v>
+        <v>2.0300500000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.540000</v>
+        <v>1004.54</v>
       </c>
       <c r="BB3" s="1">
-        <v>-141.570000</v>
+        <v>-141.57</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>7319.153023</v>
+        <v>7319.1530229999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>2.033098</v>
+        <v>2.0330979999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.200000</v>
+        <v>1049.2</v>
       </c>
       <c r="BG3" s="1">
-        <v>-225.545000</v>
+        <v>-225.54499999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>7330.562498</v>
+        <v>7330.5624980000002</v>
       </c>
       <c r="BJ3" s="1">
         <v>2.036267</v>
       </c>
       <c r="BK3" s="1">
-        <v>1127.350000</v>
+        <v>1127.3499999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.807000</v>
+        <v>-360.80700000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>7341.319234</v>
+        <v>7341.3192339999996</v>
       </c>
       <c r="BO3" s="1">
-        <v>2.039255</v>
+        <v>2.0392549999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1257.230000</v>
+        <v>1257.23</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-570.608000</v>
+        <v>-570.60799999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>7351.954949</v>
+        <v>7351.9549489999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>2.042210</v>
+        <v>2.0422099999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1403.600000</v>
+        <v>1403.6</v>
       </c>
       <c r="BV3" s="1">
-        <v>-794.663000</v>
+        <v>-794.66300000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>7362.627371</v>
+        <v>7362.6273709999996</v>
       </c>
       <c r="BY3" s="1">
-        <v>2.045174</v>
+        <v>2.0451739999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1565.270000</v>
+        <v>1565.27</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1029.030000</v>
+        <v>-1029.03</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>7373.757133</v>
+        <v>7373.7571330000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>2.048266</v>
+        <v>2.0482659999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1973.890000</v>
+        <v>1973.89</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1573.870000</v>
+        <v>-1573.87</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>7203.990904</v>
+        <v>7203.9909040000002</v>
       </c>
       <c r="B4" s="1">
         <v>2.001109</v>
       </c>
       <c r="C4" s="1">
-        <v>899.661000</v>
+        <v>899.66099999999994</v>
       </c>
       <c r="D4" s="1">
-        <v>-190.818000</v>
+        <v>-190.81800000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>7214.411386</v>
+        <v>7214.4113859999998</v>
       </c>
       <c r="G4" s="1">
         <v>2.004003</v>
       </c>
       <c r="H4" s="1">
-        <v>917.165000</v>
+        <v>917.16499999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-163.039000</v>
+        <v>-163.03899999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>7224.598189</v>
+        <v>7224.5981890000003</v>
       </c>
       <c r="L4" s="1">
-        <v>2.006833</v>
+        <v>2.0068329999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>940.460000</v>
+        <v>940.46</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.565000</v>
+        <v>-117.565</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>7234.802912</v>
+        <v>7234.8029120000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>2.009667</v>
+        <v>2.0096669999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>947.421000</v>
+        <v>947.42100000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.693000</v>
+        <v>-102.693</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>7245.077505</v>
+        <v>7245.0775050000002</v>
       </c>
       <c r="V4" s="1">
-        <v>2.012522</v>
+        <v>2.0125220000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>954.162000</v>
+        <v>954.16200000000003</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.187400</v>
+        <v>-89.187399999999997</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>7255.482083</v>
+        <v>7255.4820829999999</v>
       </c>
       <c r="AA4" s="1">
         <v>2.015412</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.510000</v>
+        <v>961.51</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.828400</v>
+        <v>-79.828400000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>7265.694742</v>
+        <v>7265.6947419999997</v>
       </c>
       <c r="AF4" s="1">
         <v>2.018249</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.590000</v>
+        <v>966.59</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.396400</v>
+        <v>-79.3964</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>7275.828499</v>
+        <v>7275.8284990000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>2.021063</v>
+        <v>2.0210629999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.545000</v>
+        <v>974.54499999999996</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.034700</v>
+        <v>-87.034700000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>7286.434426</v>
+        <v>7286.4344259999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>2.024010</v>
+        <v>2.0240100000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.712000</v>
+        <v>983.71199999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.789000</v>
+        <v>-101.789</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>7297.786860</v>
+        <v>7297.7868600000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>2.027163</v>
+        <v>2.0271629999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>995.035000</v>
+        <v>995.03499999999997</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.040000</v>
+        <v>-123.04</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>7308.903725</v>
+        <v>7308.9037250000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>2.030251</v>
+        <v>2.0302509999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.570000</v>
+        <v>1004.57</v>
       </c>
       <c r="BB4" s="1">
-        <v>-141.576000</v>
+        <v>-141.57599999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>7319.876687</v>
+        <v>7319.8766869999999</v>
       </c>
       <c r="BE4" s="1">
         <v>2.033299</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.200000</v>
+        <v>1049.2</v>
       </c>
       <c r="BG4" s="1">
-        <v>-225.573000</v>
+        <v>-225.57300000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>7330.961809</v>
+        <v>7330.9618090000004</v>
       </c>
       <c r="BJ4" s="1">
         <v>2.036378</v>
       </c>
       <c r="BK4" s="1">
-        <v>1127.330000</v>
+        <v>1127.33</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.826000</v>
+        <v>-360.82600000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>7341.743346</v>
+        <v>7341.7433460000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>2.039373</v>
+        <v>2.0393729999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1257.220000</v>
+        <v>1257.22</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-570.629000</v>
+        <v>-570.62900000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>7352.377045</v>
+        <v>7352.3770450000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>2.042327</v>
+        <v>2.0423269999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1403.680000</v>
+        <v>1403.68</v>
       </c>
       <c r="BV4" s="1">
-        <v>-794.668000</v>
+        <v>-794.66800000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>7363.378310</v>
+        <v>7363.3783100000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>2.045383</v>
+        <v>2.0453830000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1565.310000</v>
+        <v>1565.31</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1028.920000</v>
+        <v>-1028.92</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>7374.618150</v>
+        <v>7374.6181500000002</v>
       </c>
       <c r="CD4" s="1">
         <v>2.048505</v>
       </c>
       <c r="CE4" s="1">
-        <v>1974.830000</v>
+        <v>1974.83</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1575.280000</v>
+        <v>-1575.28</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>7204.334135</v>
+        <v>7204.3341350000001</v>
       </c>
       <c r="B5" s="1">
         <v>2.001204</v>
       </c>
       <c r="C5" s="1">
-        <v>899.715000</v>
+        <v>899.71500000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>-190.867000</v>
+        <v>-190.86699999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>7214.754089</v>
       </c>
       <c r="G5" s="1">
-        <v>2.004098</v>
+        <v>2.0040979999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>917.677000</v>
+        <v>917.67700000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-162.795000</v>
+        <v>-162.79499999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>7225.007884</v>
+        <v>7225.0078839999996</v>
       </c>
       <c r="L5" s="1">
-        <v>2.006947</v>
+        <v>2.0069469999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>940.401000</v>
+        <v>940.40099999999995</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.567000</v>
+        <v>-117.56699999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>7235.216544</v>
+        <v>7235.2165439999999</v>
       </c>
       <c r="Q5" s="1">
         <v>2.009782</v>
       </c>
       <c r="R5" s="1">
-        <v>947.451000</v>
+        <v>947.45100000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.640000</v>
+        <v>-102.64</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>7245.347362</v>
+        <v>7245.3473620000004</v>
       </c>
       <c r="V5" s="1">
-        <v>2.012596</v>
+        <v>2.0125959999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>954.149000</v>
+        <v>954.149</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.137400</v>
+        <v>-89.1374</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>7255.833747</v>
+        <v>7255.8337469999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.015509</v>
+        <v>2.0155090000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.649000</v>
+        <v>961.649</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.829500</v>
+        <v>-79.829499999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>7266.040421</v>
+        <v>7266.0404209999997</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.018345</v>
+        <v>2.0183450000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.590000</v>
+        <v>966.59</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.362400</v>
+        <v>-79.362399999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>7276.177656</v>
+        <v>7276.1776559999998</v>
       </c>
       <c r="AK5" s="1">
-        <v>2.021160</v>
+        <v>2.0211600000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.542000</v>
+        <v>974.54200000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.021500</v>
+        <v>-87.021500000000003</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>7286.793562</v>
+        <v>7286.7935619999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>2.024109</v>
+        <v>2.0241090000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.701000</v>
+        <v>983.70100000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.782000</v>
+        <v>-101.782</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>7298.513004</v>
+        <v>7298.5130040000004</v>
       </c>
       <c r="AU5" s="1">
-        <v>2.027365</v>
+        <v>2.0273650000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>995.016000</v>
+        <v>995.01599999999996</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.050000</v>
+        <v>-123.05</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>7309.278705</v>
+        <v>7309.2787049999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>2.030355</v>
+        <v>2.0303550000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.530000</v>
+        <v>1004.53</v>
       </c>
       <c r="BB5" s="1">
-        <v>-141.570000</v>
+        <v>-141.57</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>7320.263567</v>
@@ -1417,225 +1833,225 @@
         <v>2.033407</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.210000</v>
+        <v>1049.21</v>
       </c>
       <c r="BG5" s="1">
-        <v>-225.535000</v>
+        <v>-225.535</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>7331.336255</v>
+        <v>7331.3362550000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>2.036482</v>
+        <v>2.0364819999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1127.360000</v>
+        <v>1127.3599999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.818000</v>
+        <v>-360.81799999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>7342.443168</v>
+        <v>7342.4431679999998</v>
       </c>
       <c r="BO5" s="1">
         <v>2.039568</v>
       </c>
       <c r="BP5" s="1">
-        <v>1257.200000</v>
+        <v>1257.2</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-570.616000</v>
+        <v>-570.61599999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>7353.087357</v>
+        <v>7353.0873570000003</v>
       </c>
       <c r="BT5" s="1">
-        <v>2.042524</v>
+        <v>2.0425239999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1403.750000</v>
+        <v>1403.75</v>
       </c>
       <c r="BV5" s="1">
-        <v>-794.661000</v>
+        <v>-794.66099999999994</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>7363.523637</v>
+        <v>7363.5236370000002</v>
       </c>
       <c r="BY5" s="1">
         <v>2.045423</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1565.200000</v>
+        <v>1565.2</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1029.090000</v>
+        <v>-1029.0899999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>7374.837382</v>
+        <v>7374.8373819999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>2.048566</v>
+        <v>2.0485660000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1974.930000</v>
+        <v>1974.93</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1575.650000</v>
+        <v>-1575.65</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>7204.751302</v>
+        <v>7204.7513019999997</v>
       </c>
       <c r="B6" s="1">
-        <v>2.001320</v>
+        <v>2.0013200000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>899.734000</v>
+        <v>899.73400000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-190.979000</v>
+        <v>-190.97900000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>7215.168777</v>
+        <v>7215.1687769999999</v>
       </c>
       <c r="G6" s="1">
-        <v>2.004214</v>
+        <v>2.0042140000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>917.271000</v>
+        <v>917.27099999999996</v>
       </c>
       <c r="I6" s="1">
-        <v>-162.378000</v>
+        <v>-162.37799999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>7225.295598</v>
+        <v>7225.2955979999997</v>
       </c>
       <c r="L6" s="1">
-        <v>2.007027</v>
+        <v>2.0070269999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>940.557000</v>
+        <v>940.55700000000002</v>
       </c>
       <c r="N6" s="1">
-        <v>-117.776000</v>
+        <v>-117.776</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>7235.501245</v>
+        <v>7235.5012450000004</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.009861</v>
+        <v>2.0098609999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>947.457000</v>
+        <v>947.45699999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.644000</v>
+        <v>-102.64400000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>7245.691056</v>
+        <v>7245.6910559999997</v>
       </c>
       <c r="V6" s="1">
-        <v>2.012692</v>
+        <v>2.0126919999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>954.160000</v>
+        <v>954.16</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.207800</v>
+        <v>-89.207800000000006</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>7256.180452</v>
+        <v>7256.1804519999996</v>
       </c>
       <c r="AA6" s="1">
         <v>2.015606</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.439000</v>
+        <v>961.43899999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.809800</v>
+        <v>-79.809799999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>7266.382662</v>
       </c>
       <c r="AF6" s="1">
-        <v>2.018440</v>
+        <v>2.01844</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.576000</v>
+        <v>966.57600000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.384500</v>
+        <v>-79.384500000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>7276.874535</v>
+        <v>7276.8745349999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>2.021354</v>
+        <v>2.0213540000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.540000</v>
+        <v>974.54</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.000500</v>
+        <v>-87.000500000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>7287.514714</v>
+        <v>7287.5147139999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>2.024310</v>
+        <v>2.0243099999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.721000</v>
+        <v>983.721</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.783000</v>
+        <v>-101.783</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>7298.877563</v>
@@ -1644,121 +2060,121 @@
         <v>2.027466</v>
       </c>
       <c r="AV6" s="1">
-        <v>995.024000</v>
+        <v>995.024</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.050000</v>
+        <v>-123.05</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>7309.659100</v>
+        <v>7309.6590999999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>2.030461</v>
+        <v>2.0304609999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.530000</v>
+        <v>1004.53</v>
       </c>
       <c r="BB6" s="1">
-        <v>-141.577000</v>
+        <v>-141.577</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>7320.625149</v>
+        <v>7320.6251490000004</v>
       </c>
       <c r="BE6" s="1">
-        <v>2.033507</v>
+        <v>2.0335070000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG6" s="1">
-        <v>-225.542000</v>
+        <v>-225.542</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>7332.012302</v>
+        <v>7332.0123020000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>2.036670</v>
+        <v>2.03667</v>
       </c>
       <c r="BK6" s="1">
-        <v>1127.350000</v>
+        <v>1127.3499999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.853000</v>
+        <v>-360.85300000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>7342.576097</v>
+        <v>7342.5760970000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>2.039604</v>
+        <v>2.0396040000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1257.200000</v>
+        <v>1257.2</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-570.626000</v>
+        <v>-570.62599999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>7353.222723</v>
+        <v>7353.2227229999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>2.042562</v>
+        <v>2.0425620000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1403.830000</v>
+        <v>1403.83</v>
       </c>
       <c r="BV6" s="1">
-        <v>-794.665000</v>
+        <v>-794.66499999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>7363.946228</v>
+        <v>7363.9462279999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>2.045541</v>
+        <v>2.0455410000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1565.220000</v>
+        <v>1565.22</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1028.980000</v>
+        <v>-1028.98</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>7375.352229</v>
+        <v>7375.3522290000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>2.048709</v>
+        <v>2.0487090000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1974.700000</v>
+        <v>1974.7</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1574.090000</v>
+        <v>-1574.09</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>7205.044406</v>
       </c>
@@ -1766,752 +2182,752 @@
         <v>2.001401</v>
       </c>
       <c r="C7" s="1">
-        <v>899.793000</v>
+        <v>899.79300000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-190.910000</v>
+        <v>-190.91</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>7215.447001</v>
+        <v>7215.4470010000005</v>
       </c>
       <c r="G7" s="1">
-        <v>2.004291</v>
+        <v>2.0042909999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>917.429000</v>
+        <v>917.42899999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-162.972000</v>
+        <v>-162.97200000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>7225.642763</v>
+        <v>7225.6427629999998</v>
       </c>
       <c r="L7" s="1">
         <v>2.007123</v>
       </c>
       <c r="M7" s="1">
-        <v>940.544000</v>
+        <v>940.54399999999998</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.649000</v>
+        <v>-117.649</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>7235.847453</v>
+        <v>7235.8474530000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>2.009958</v>
+        <v>2.0099580000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>947.453000</v>
+        <v>947.45299999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.660000</v>
+        <v>-102.66</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>7246.034288</v>
+        <v>7246.0342879999998</v>
       </c>
       <c r="V7" s="1">
-        <v>2.012787</v>
+        <v>2.0127869999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>954.109000</v>
+        <v>954.10900000000004</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.250200</v>
+        <v>-89.250200000000007</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>7256.880305</v>
+        <v>7256.8803049999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.015800</v>
+        <v>2.0158</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.557000</v>
+        <v>961.55700000000002</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.865400</v>
+        <v>-79.865399999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>7267.068660</v>
+        <v>7267.0686599999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.018630</v>
+        <v>2.0186299999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.576000</v>
+        <v>966.57600000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.397500</v>
+        <v>-79.397499999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>7277.222726</v>
       </c>
       <c r="AK7" s="1">
-        <v>2.021451</v>
+        <v>2.0214509999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.559000</v>
+        <v>974.55899999999997</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.022200</v>
+        <v>-87.022199999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>7287.872857</v>
+        <v>7287.8728570000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>2.024409</v>
+        <v>2.0244089999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.711000</v>
+        <v>983.71100000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.770000</v>
+        <v>-101.77</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>7299.241129</v>
       </c>
       <c r="AU7" s="1">
-        <v>2.027567</v>
+        <v>2.0275669999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>995.033000</v>
+        <v>995.03300000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.059000</v>
+        <v>-123.059</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>7310.322748</v>
+        <v>7310.3227479999996</v>
       </c>
       <c r="AZ7" s="1">
-        <v>2.030645</v>
+        <v>2.0306449999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB7" s="1">
-        <v>-141.589000</v>
+        <v>-141.589</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>7321.279868</v>
+        <v>7321.2798679999996</v>
       </c>
       <c r="BE7" s="1">
-        <v>2.033689</v>
+        <v>2.0336889999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.190000</v>
+        <v>1049.19</v>
       </c>
       <c r="BG7" s="1">
-        <v>-225.538000</v>
+        <v>-225.53800000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>7332.465647</v>
       </c>
       <c r="BJ7" s="1">
-        <v>2.036796</v>
+        <v>2.0367959999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1127.360000</v>
+        <v>1127.3599999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.811000</v>
+        <v>-360.81099999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>7342.984801</v>
+        <v>7342.9848009999996</v>
       </c>
       <c r="BO7" s="1">
-        <v>2.039718</v>
+        <v>2.0397180000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1257.210000</v>
+        <v>1257.21</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-570.653000</v>
+        <v>-570.65300000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>7353.633447</v>
+        <v>7353.6334470000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>2.042676</v>
+        <v>2.0426760000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1403.900000</v>
+        <v>1403.9</v>
       </c>
       <c r="BV7" s="1">
-        <v>-794.635000</v>
+        <v>-794.63499999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>7364.371301</v>
+        <v>7364.3713010000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>2.045659</v>
+        <v>2.0456590000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1565.150000</v>
+        <v>1565.15</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1029.000000</v>
+        <v>-1029</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>7375.873536</v>
+        <v>7375.8735360000001</v>
       </c>
       <c r="CD7" s="1">
         <v>2.048854</v>
       </c>
       <c r="CE7" s="1">
-        <v>1973.400000</v>
+        <v>1973.4</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1575.610000</v>
+        <v>-1575.61</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>7205.384693</v>
       </c>
       <c r="B8" s="1">
-        <v>2.001496</v>
+        <v>2.0014959999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>899.688000</v>
+        <v>899.68799999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-190.974000</v>
+        <v>-190.97399999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>7215.794696</v>
+        <v>7215.7946959999999</v>
       </c>
       <c r="G8" s="1">
-        <v>2.004387</v>
+        <v>2.0043869999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>917.765000</v>
+        <v>917.76499999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-162.766000</v>
+        <v>-162.76599999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>7225.986986</v>
+        <v>7225.9869859999999</v>
       </c>
       <c r="L8" s="1">
-        <v>2.007219</v>
+        <v>2.0072190000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>940.684000</v>
+        <v>940.68399999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-117.607000</v>
+        <v>-117.607</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>7236.195150</v>
+        <v>7236.1951499999996</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.010054</v>
+        <v>2.0100539999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>947.471000</v>
+        <v>947.471</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.670000</v>
+        <v>-102.67</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>7246.721743</v>
+        <v>7246.7217430000001</v>
       </c>
       <c r="V8" s="1">
-        <v>2.012978</v>
+        <v>2.0129779999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>954.105000</v>
+        <v>954.10500000000002</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.213500</v>
+        <v>-89.213499999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>7257.226017</v>
       </c>
       <c r="AA8" s="1">
-        <v>2.015896</v>
+        <v>2.0158960000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.507000</v>
+        <v>961.50699999999995</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.791800</v>
+        <v>-79.791799999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>7267.414340</v>
+        <v>7267.4143400000003</v>
       </c>
       <c r="AF8" s="1">
         <v>2.018726</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.556000</v>
+        <v>966.55600000000004</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.386400</v>
+        <v>-79.386399999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>7277.569662</v>
+        <v>7277.5696619999999</v>
       </c>
       <c r="AK8" s="1">
         <v>2.021547</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.545000</v>
+        <v>974.54499999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.025400</v>
+        <v>-87.025400000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>7288.234904</v>
+        <v>7288.2349039999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>2.024510</v>
+        <v>2.0245099999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.726000</v>
+        <v>983.726</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.764000</v>
+        <v>-101.764</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>7299.913737</v>
+        <v>7299.9137369999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>2.027754</v>
+        <v>2.0277539999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>995.010000</v>
+        <v>995.01</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.064000</v>
+        <v>-123.06399999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>7310.742363</v>
+        <v>7310.7423630000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2.030762</v>
+        <v>2.0307620000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.560000</v>
+        <v>1004.56</v>
       </c>
       <c r="BB8" s="1">
-        <v>-141.581000</v>
+        <v>-141.58099999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>7321.743132</v>
+        <v>7321.7431319999996</v>
       </c>
       <c r="BE8" s="1">
-        <v>2.033818</v>
+        <v>2.0338180000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG8" s="1">
-        <v>-225.544000</v>
+        <v>-225.54400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>7332.840655</v>
       </c>
       <c r="BJ8" s="1">
-        <v>2.036900</v>
+        <v>2.0369000000000002</v>
       </c>
       <c r="BK8" s="1">
-        <v>1127.310000</v>
+        <v>1127.31</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.841000</v>
+        <v>-360.84100000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>7343.380437</v>
+        <v>7343.3804369999998</v>
       </c>
       <c r="BO8" s="1">
         <v>2.039828</v>
       </c>
       <c r="BP8" s="1">
-        <v>1257.210000</v>
+        <v>1257.21</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-570.655000</v>
+        <v>-570.65499999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>7354.063022</v>
+        <v>7354.0630220000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>2.042795</v>
+        <v>2.0427949999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1403.940000</v>
+        <v>1403.94</v>
       </c>
       <c r="BV8" s="1">
-        <v>-794.771000</v>
+        <v>-794.77099999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>7364.817699</v>
+        <v>7364.8176990000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>2.045783</v>
+        <v>2.0457830000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1565.160000</v>
+        <v>1565.16</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1029.160000</v>
+        <v>-1029.1600000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>7376.411717</v>
       </c>
       <c r="CD8" s="1">
-        <v>2.049003</v>
+        <v>2.0490029999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1973.620000</v>
+        <v>1973.62</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1574.020000</v>
+        <v>-1574.02</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>7205.726179</v>
+        <v>7205.7261790000002</v>
       </c>
       <c r="B9" s="1">
-        <v>2.001591</v>
+        <v>2.0015909999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>899.750000</v>
+        <v>899.75</v>
       </c>
       <c r="D9" s="1">
-        <v>-190.867000</v>
+        <v>-190.86699999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>7216.141911</v>
+        <v>7216.1419109999997</v>
       </c>
       <c r="G9" s="1">
-        <v>2.004484</v>
+        <v>2.0044840000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>917.542000</v>
+        <v>917.54200000000003</v>
       </c>
       <c r="I9" s="1">
-        <v>-163.003000</v>
+        <v>-163.00299999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>7226.678441</v>
       </c>
       <c r="L9" s="1">
-        <v>2.007411</v>
+        <v>2.0074109999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>940.588000</v>
+        <v>940.58799999999997</v>
       </c>
       <c r="N9" s="1">
-        <v>-117.590000</v>
+        <v>-117.59</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>7236.893058</v>
+        <v>7236.8930579999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.010248</v>
+        <v>2.0102479999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>947.425000</v>
+        <v>947.42499999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.695000</v>
+        <v>-102.69499999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>7247.065967</v>
+        <v>7247.0659669999995</v>
       </c>
       <c r="V9" s="1">
         <v>2.013074</v>
       </c>
       <c r="W9" s="1">
-        <v>954.085000</v>
+        <v>954.08500000000004</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.125400</v>
+        <v>-89.125399999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>7257.576194</v>
+        <v>7257.5761940000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>2.015993</v>
+        <v>2.0159929999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.545000</v>
+        <v>961.54499999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.828500</v>
+        <v>-79.828500000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>7267.757573</v>
+        <v>7267.7575729999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>2.018822</v>
+        <v>2.0188220000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.577000</v>
+        <v>966.577</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.372400</v>
+        <v>-79.372399999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>7278.220677</v>
+        <v>7278.2206770000003</v>
       </c>
       <c r="AK9" s="1">
         <v>2.021728</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.549000</v>
+        <v>974.54899999999998</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.025900</v>
+        <v>-87.025899999999993</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>7288.883175</v>
+        <v>7288.8831749999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>2.024690</v>
+        <v>2.0246900000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.707000</v>
+        <v>983.70699999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.758000</v>
+        <v>-101.758</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>7300.373496</v>
+        <v>7300.3734960000002</v>
       </c>
       <c r="AU9" s="1">
         <v>2.027882</v>
       </c>
       <c r="AV9" s="1">
-        <v>995.028000</v>
+        <v>995.02800000000002</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.064000</v>
+        <v>-123.06399999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>7311.117338</v>
       </c>
       <c r="AZ9" s="1">
-        <v>2.030866</v>
+        <v>2.0308660000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.570000</v>
+        <v>1004.57</v>
       </c>
       <c r="BB9" s="1">
-        <v>-141.574000</v>
+        <v>-141.57400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>7322.102733</v>
+        <v>7322.1027329999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>2.033917</v>
+        <v>2.0339170000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG9" s="1">
-        <v>-225.563000</v>
+        <v>-225.56299999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>7333.215629</v>
+        <v>7333.2156290000003</v>
       </c>
       <c r="BJ9" s="1">
         <v>2.037004</v>
       </c>
       <c r="BK9" s="1">
-        <v>1127.340000</v>
+        <v>1127.3399999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.821000</v>
+        <v>-360.82100000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>7343.804222</v>
+        <v>7343.8042219999998</v>
       </c>
       <c r="BO9" s="1">
         <v>2.039946</v>
       </c>
       <c r="BP9" s="1">
-        <v>1257.200000</v>
+        <v>1257.2</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-570.665000</v>
+        <v>-570.66499999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>7354.480578</v>
+        <v>7354.4805779999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>2.042911</v>
+        <v>2.0429110000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1404.070000</v>
+        <v>1404.07</v>
       </c>
       <c r="BV9" s="1">
-        <v>-794.774000</v>
+        <v>-794.774</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>7365.248228</v>
+        <v>7365.2482280000004</v>
       </c>
       <c r="BY9" s="1">
-        <v>2.045902</v>
+        <v>2.0459019999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1565.270000</v>
+        <v>1565.27</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1028.870000</v>
+        <v>-1028.8699999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>7376.951333</v>
@@ -2520,996 +2936,996 @@
         <v>2.049153</v>
       </c>
       <c r="CE9" s="1">
-        <v>1973.350000</v>
+        <v>1973.35</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1573.930000</v>
+        <v>-1573.93</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>7206.409396</v>
       </c>
       <c r="B10" s="1">
-        <v>2.001780</v>
+        <v>2.0017800000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>899.980000</v>
+        <v>899.98</v>
       </c>
       <c r="D10" s="1">
-        <v>-190.947000</v>
+        <v>-190.947</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>7216.832849</v>
+        <v>7216.8328490000004</v>
       </c>
       <c r="G10" s="1">
-        <v>2.004676</v>
+        <v>2.0046759999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>917.455000</v>
+        <v>917.45500000000004</v>
       </c>
       <c r="I10" s="1">
-        <v>-162.942000</v>
+        <v>-162.94200000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>7227.022177</v>
+        <v>7227.0221769999998</v>
       </c>
       <c r="L10" s="1">
-        <v>2.007506</v>
+        <v>2.0075059999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>940.594000</v>
+        <v>940.59400000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-117.516000</v>
+        <v>-117.51600000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>7237.241707</v>
+        <v>7237.2417070000001</v>
       </c>
       <c r="Q10" s="1">
         <v>2.010345</v>
       </c>
       <c r="R10" s="1">
-        <v>947.419000</v>
+        <v>947.41899999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.680000</v>
+        <v>-102.68</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>7247.408702</v>
+        <v>7247.4087019999997</v>
       </c>
       <c r="V10" s="1">
         <v>2.013169</v>
       </c>
       <c r="W10" s="1">
-        <v>954.207000</v>
+        <v>954.20699999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.153700</v>
+        <v>-89.153700000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>7258.227440</v>
+        <v>7258.2274399999997</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.016174</v>
+        <v>2.0161739999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.555000</v>
+        <v>961.55499999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.778300</v>
+        <v>-79.778300000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>7268.414308</v>
+        <v>7268.4143080000003</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.019004</v>
+        <v>2.0190039999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.551000</v>
+        <v>966.55100000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.362200</v>
+        <v>-79.362200000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>7278.617973</v>
+        <v>7278.6179730000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>2.021838</v>
+        <v>2.0218379999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.555000</v>
+        <v>974.55499999999995</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.011400</v>
+        <v>-87.011399999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>7289.342472</v>
+        <v>7289.3424720000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.024817</v>
+        <v>2.0248170000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.710000</v>
+        <v>983.71</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.782000</v>
+        <v>-101.782</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>7300.737065</v>
+        <v>7300.7370650000003</v>
       </c>
       <c r="AU10" s="1">
-        <v>2.027983</v>
+        <v>2.0279829999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>995.015000</v>
+        <v>995.01499999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.036000</v>
+        <v>-123.036</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>7311.493337</v>
+        <v>7311.4933369999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>2.030970</v>
+        <v>2.0309699999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB10" s="1">
-        <v>-141.567000</v>
+        <v>-141.56700000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>7322.467292</v>
+        <v>7322.4672920000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>2.034019</v>
+        <v>2.0340189999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-225.551000</v>
+        <v>-225.55099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>7333.616860</v>
+        <v>7333.6168600000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>2.037116</v>
+        <v>2.0371160000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1127.340000</v>
+        <v>1127.3399999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.852000</v>
+        <v>-360.85199999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>7344.199008</v>
+        <v>7344.1990079999996</v>
       </c>
       <c r="BO10" s="1">
-        <v>2.040055</v>
+        <v>2.0400550000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1257.240000</v>
+        <v>1257.24</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-570.660000</v>
+        <v>-570.66</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>7354.891264</v>
+        <v>7354.8912639999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.043025</v>
+        <v>2.0430250000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1404.110000</v>
+        <v>1404.11</v>
       </c>
       <c r="BV10" s="1">
-        <v>-794.812000</v>
+        <v>-794.81200000000001</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>7365.669367</v>
+        <v>7365.6693670000004</v>
       </c>
       <c r="BY10" s="1">
-        <v>2.046019</v>
+        <v>2.0460189999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1565.210000</v>
+        <v>1565.21</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1029.000000</v>
+        <v>-1029</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>7377.470146</v>
+        <v>7377.4701459999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.049297</v>
+        <v>2.0492970000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1972.930000</v>
+        <v>1972.93</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1575.590000</v>
+        <v>-1575.59</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>7206.753653</v>
+        <v>7206.7536529999998</v>
       </c>
       <c r="B11" s="1">
-        <v>2.001876</v>
+        <v>2.0018760000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>899.732000</v>
+        <v>899.73199999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>-190.856000</v>
+        <v>-190.85599999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>7217.180055</v>
+        <v>7217.1800549999998</v>
       </c>
       <c r="G11" s="1">
         <v>2.004772</v>
       </c>
       <c r="H11" s="1">
-        <v>917.543000</v>
+        <v>917.54300000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-162.874000</v>
+        <v>-162.874</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>7227.371817</v>
+        <v>7227.3718170000002</v>
       </c>
       <c r="L11" s="1">
         <v>2.007603</v>
       </c>
       <c r="M11" s="1">
-        <v>940.495000</v>
+        <v>940.495</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.499000</v>
+        <v>-117.499</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>7237.591387</v>
+        <v>7237.5913870000004</v>
       </c>
       <c r="Q11" s="1">
-        <v>2.010442</v>
+        <v>2.0104419999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>947.450000</v>
+        <v>947.45</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.671000</v>
+        <v>-102.67100000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>7248.054525</v>
+        <v>7248.0545249999996</v>
       </c>
       <c r="V11" s="1">
-        <v>2.013348</v>
+        <v>2.0133480000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>954.142000</v>
+        <v>954.14200000000005</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.156600</v>
+        <v>-89.156599999999997</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>7258.621263</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.016284</v>
+        <v>2.0162840000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.530000</v>
+        <v>961.53</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.752500</v>
+        <v>-79.752499999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>7268.788754</v>
+        <v>7268.7887540000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.019108</v>
+        <v>2.0191080000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.603000</v>
+        <v>966.60299999999995</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.353000</v>
+        <v>-79.352999999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>7278.966660</v>
+        <v>7278.96666</v>
       </c>
       <c r="AK11" s="1">
         <v>2.021935</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.550000</v>
+        <v>974.55</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.029900</v>
+        <v>-87.029899999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>7289.710006</v>
+        <v>7289.7100060000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.024919</v>
+        <v>2.0249190000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.716000</v>
+        <v>983.71600000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.790000</v>
+        <v>-101.79</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>7301.101029</v>
+        <v>7301.1010290000004</v>
       </c>
       <c r="AU11" s="1">
-        <v>2.028084</v>
+        <v>2.0280840000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>995.029000</v>
+        <v>995.029</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.061000</v>
+        <v>-123.06100000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>7311.910477</v>
+        <v>7311.9104770000004</v>
       </c>
       <c r="AZ11" s="1">
-        <v>2.031086</v>
+        <v>2.0310860000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB11" s="1">
-        <v>-141.594000</v>
+        <v>-141.59399999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>7322.906251</v>
+        <v>7322.9062510000003</v>
       </c>
       <c r="BE11" s="1">
         <v>2.034141</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.140000</v>
+        <v>1049.1400000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-225.552000</v>
+        <v>-225.55199999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>7333.992827</v>
       </c>
       <c r="BJ11" s="1">
-        <v>2.037220</v>
+        <v>2.03722</v>
       </c>
       <c r="BK11" s="1">
-        <v>1127.330000</v>
+        <v>1127.33</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.823000</v>
+        <v>-360.82299999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>7344.616639</v>
+        <v>7344.6166389999999</v>
       </c>
       <c r="BO11" s="1">
         <v>2.040171</v>
       </c>
       <c r="BP11" s="1">
-        <v>1257.230000</v>
+        <v>1257.23</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-570.641000</v>
+        <v>-570.64099999999996</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>7355.304927</v>
+        <v>7355.3049270000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>2.043140</v>
+        <v>2.0431400000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1404.080000</v>
+        <v>1404.08</v>
       </c>
       <c r="BV11" s="1">
-        <v>-794.876000</v>
+        <v>-794.87599999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>7366.091921</v>
+        <v>7366.0919210000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>2.046137</v>
+        <v>2.0461369999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1565.250000</v>
+        <v>1565.25</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1029.090000</v>
+        <v>-1029.0899999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>7377.987015</v>
+        <v>7377.9870149999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>2.049441</v>
+        <v>2.0494409999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>1972.940000</v>
+        <v>1972.94</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1574.840000</v>
+        <v>-1574.84</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>7207.096401</v>
+        <v>7207.0964009999998</v>
       </c>
       <c r="B12" s="1">
-        <v>2.001971</v>
+        <v>2.0019710000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>899.796000</v>
+        <v>899.79600000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-190.812000</v>
+        <v>-190.81200000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>7217.524743</v>
+        <v>7217.5247429999999</v>
       </c>
       <c r="G12" s="1">
-        <v>2.004868</v>
+        <v>2.0048680000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>917.549000</v>
+        <v>917.54899999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-162.752000</v>
+        <v>-162.75200000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>7228.022102</v>
+        <v>7228.0221019999999</v>
       </c>
       <c r="L12" s="1">
         <v>2.007784</v>
       </c>
       <c r="M12" s="1">
-        <v>940.512000</v>
+        <v>940.51199999999994</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.562000</v>
+        <v>-117.562</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>7238.306618</v>
+        <v>7238.3066179999996</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.010641</v>
+        <v>2.0106410000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>947.452000</v>
+        <v>947.452</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.645000</v>
+        <v>-102.645</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>7248.440876</v>
+        <v>7248.4408759999997</v>
       </c>
       <c r="V12" s="1">
-        <v>2.013456</v>
+        <v>2.0134560000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>954.137000</v>
+        <v>954.13699999999994</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.099300</v>
+        <v>-89.099299999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>7258.971439</v>
+        <v>7258.9714389999999</v>
       </c>
       <c r="AA12" s="1">
         <v>2.016381</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.520000</v>
+        <v>961.52</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.805800</v>
+        <v>-79.805800000000005</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>7269.131985</v>
       </c>
       <c r="AF12" s="1">
-        <v>2.019203</v>
+        <v>2.0192030000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.603000</v>
+        <v>966.60299999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.373600</v>
+        <v>-79.373599999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>7279.314852</v>
+        <v>7279.3148520000004</v>
       </c>
       <c r="AK12" s="1">
-        <v>2.022032</v>
+        <v>2.0220319999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.528000</v>
+        <v>974.52800000000002</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.035700</v>
+        <v>-87.035700000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>7290.068614</v>
+        <v>7290.0686139999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>2.025019</v>
+        <v>2.0250189999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.709000</v>
+        <v>983.70899999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.766000</v>
+        <v>-101.76600000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>7301.519255</v>
+        <v>7301.5192550000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>2.028200</v>
+        <v>2.0282</v>
       </c>
       <c r="AV12" s="1">
-        <v>995.005000</v>
+        <v>995.005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.050000</v>
+        <v>-123.05</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>7312.211512</v>
+        <v>7312.2115119999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>2.031170</v>
+        <v>2.0311699999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.580000</v>
+        <v>1004.58</v>
       </c>
       <c r="BB12" s="1">
-        <v>-141.579000</v>
+        <v>-141.57900000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>7323.187978</v>
+        <v>7323.1879779999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>2.034219</v>
+        <v>2.0342190000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG12" s="1">
-        <v>-225.544000</v>
+        <v>-225.54400000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>7334.367309</v>
+        <v>7334.3673090000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>2.037324</v>
+        <v>2.0373239999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1127.320000</v>
+        <v>1127.32</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.834000</v>
+        <v>-360.834</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>7345.015949</v>
+        <v>7345.0159489999996</v>
       </c>
       <c r="BO12" s="1">
-        <v>2.040282</v>
+        <v>2.0402819999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1257.240000</v>
+        <v>1257.24</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-570.647000</v>
+        <v>-570.64700000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>7355.720575</v>
+        <v>7355.7205750000003</v>
       </c>
       <c r="BT12" s="1">
         <v>2.043256</v>
       </c>
       <c r="BU12" s="1">
-        <v>1404.170000</v>
+        <v>1404.17</v>
       </c>
       <c r="BV12" s="1">
-        <v>-794.954000</v>
+        <v>-794.95399999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>7366.517986</v>
+        <v>7366.5179859999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>2.046255</v>
+        <v>2.0462549999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1565.190000</v>
+        <v>1565.19</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1029.090000</v>
+        <v>-1029.0899999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>7378.539521</v>
+        <v>7378.5395209999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>2.049594</v>
+        <v>2.0495939999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1973.750000</v>
+        <v>1973.75</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1573.550000</v>
+        <v>-1573.55</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>7207.741191</v>
+        <v>7207.7411910000001</v>
       </c>
       <c r="B13" s="1">
-        <v>2.002150</v>
+        <v>2.0021499999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>899.810000</v>
+        <v>899.81</v>
       </c>
       <c r="D13" s="1">
-        <v>-191.041000</v>
+        <v>-191.041</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>7218.168053</v>
+        <v>7218.1680530000003</v>
       </c>
       <c r="G13" s="1">
-        <v>2.005047</v>
+        <v>2.0050469999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>917.401000</v>
+        <v>917.40099999999995</v>
       </c>
       <c r="I13" s="1">
-        <v>-162.780000</v>
+        <v>-162.78</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>7228.407465</v>
+        <v>7228.4074650000002</v>
       </c>
       <c r="L13" s="1">
-        <v>2.007891</v>
+        <v>2.0078909999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>940.436000</v>
+        <v>940.43600000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.690000</v>
+        <v>-117.69</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>7238.652825</v>
+        <v>7238.6528250000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>2.010737</v>
+        <v>2.0107370000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>947.461000</v>
+        <v>947.46100000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.668000</v>
+        <v>-102.66800000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>7248.777693</v>
       </c>
       <c r="V13" s="1">
-        <v>2.013549</v>
+        <v>2.0135489999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>954.159000</v>
+        <v>954.15899999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.220300</v>
+        <v>-89.220299999999995</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>7259.320127</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.016478</v>
+        <v>2.0164780000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.609000</v>
+        <v>961.60900000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.787900</v>
+        <v>-79.787899999999993</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>7269.475748</v>
+        <v>7269.4757479999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.019299</v>
+        <v>2.0192990000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.601000</v>
+        <v>966.601</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.363900</v>
+        <v>-79.363900000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>7279.737972</v>
+        <v>7279.7379719999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>2.022149</v>
+        <v>2.0221490000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.559000</v>
+        <v>974.55899999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.039400</v>
+        <v>-87.039400000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>7290.782853</v>
+        <v>7290.7828529999997</v>
       </c>
       <c r="AP13" s="1">
         <v>2.025217</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.698000</v>
+        <v>983.69799999999998</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.776000</v>
+        <v>-101.776</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>7301.832230</v>
+        <v>7301.83223</v>
       </c>
       <c r="AU13" s="1">
-        <v>2.028287</v>
+        <v>2.0282870000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>995.011000</v>
+        <v>995.01099999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.044000</v>
+        <v>-123.044</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>7312.571608</v>
+        <v>7312.5716080000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>2.031270</v>
+        <v>2.0312700000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.530000</v>
+        <v>1004.53</v>
       </c>
       <c r="BB13" s="1">
-        <v>-141.605000</v>
+        <v>-141.60499999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>7323.549562</v>
+        <v>7323.5495620000002</v>
       </c>
       <c r="BE13" s="1">
         <v>2.034319</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-225.608000</v>
+        <v>-225.608</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>7334.742282</v>
+        <v>7334.7422820000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>2.037428</v>
+        <v>2.0374279999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1127.340000</v>
+        <v>1127.3399999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.816000</v>
+        <v>-360.81599999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>7345.439537</v>
+        <v>7345.4395370000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>2.040400</v>
+        <v>2.0404</v>
       </c>
       <c r="BP13" s="1">
-        <v>1257.220000</v>
+        <v>1257.22</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-570.664000</v>
+        <v>-570.66399999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>7356.134239</v>
@@ -3518,1268 +3934,1268 @@
         <v>2.043371</v>
       </c>
       <c r="BU13" s="1">
-        <v>1404.190000</v>
+        <v>1404.19</v>
       </c>
       <c r="BV13" s="1">
-        <v>-795.035000</v>
+        <v>-795.03499999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>7366.933671</v>
+        <v>7366.9336709999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>2.046370</v>
+        <v>2.04637</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1565.180000</v>
+        <v>1565.18</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1029.180000</v>
+        <v>-1029.18</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>7379.069780</v>
+        <v>7379.0697799999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>2.049742</v>
+        <v>2.0497420000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1972.710000</v>
+        <v>1972.71</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1574.940000</v>
+        <v>-1574.94</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>7208.118114</v>
+        <v>7208.1181139999999</v>
       </c>
       <c r="B14" s="1">
-        <v>2.002255</v>
+        <v>2.0022549999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>899.815000</v>
+        <v>899.81500000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-190.834000</v>
+        <v>-190.834</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>7218.556420</v>
+        <v>7218.5564199999999</v>
       </c>
       <c r="G14" s="1">
-        <v>2.005155</v>
+        <v>2.0051549999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>917.575000</v>
+        <v>917.57500000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-163.271000</v>
+        <v>-163.27099999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>7228.752182</v>
+        <v>7228.7521820000002</v>
       </c>
       <c r="L14" s="1">
         <v>2.007987</v>
       </c>
       <c r="M14" s="1">
-        <v>940.497000</v>
+        <v>940.49699999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-117.645000</v>
+        <v>-117.645</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>7238.997546</v>
+        <v>7238.9975459999996</v>
       </c>
       <c r="Q14" s="1">
-        <v>2.010833</v>
+        <v>2.0108329999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>947.450000</v>
+        <v>947.45</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.680000</v>
+        <v>-102.68</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>7249.126845</v>
+        <v>7249.1268449999998</v>
       </c>
       <c r="V14" s="1">
         <v>2.013646</v>
       </c>
       <c r="W14" s="1">
-        <v>954.131000</v>
+        <v>954.13099999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.123500</v>
+        <v>-89.123500000000007</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>7259.742718</v>
+        <v>7259.7427180000004</v>
       </c>
       <c r="AA14" s="1">
-        <v>2.016595</v>
+        <v>2.0165950000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.508000</v>
+        <v>961.50800000000004</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.850200</v>
+        <v>-79.850200000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>7269.893841</v>
+        <v>7269.8938410000001</v>
       </c>
       <c r="AF14" s="1">
         <v>2.019415</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.573000</v>
+        <v>966.57299999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.370600</v>
+        <v>-79.370599999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>7280.020691</v>
+        <v>7280.0206909999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>2.022228</v>
+        <v>2.0222280000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.552000</v>
+        <v>974.55200000000002</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.030800</v>
+        <v>-87.030799999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>7291.131540</v>
+        <v>7291.1315400000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.025314</v>
+        <v>2.0253139999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.708000</v>
+        <v>983.70799999999997</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.776000</v>
+        <v>-101.776</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>7302.196294</v>
+        <v>7302.1962940000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>2.028388</v>
+        <v>2.0283880000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>995.018000</v>
+        <v>995.01800000000003</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.060000</v>
+        <v>-123.06</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>7312.929260</v>
+        <v>7312.9292599999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>2.031369</v>
+        <v>2.0313690000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.560000</v>
+        <v>1004.56</v>
       </c>
       <c r="BB14" s="1">
-        <v>-141.579000</v>
+        <v>-141.57900000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>7323.953832</v>
+        <v>7323.9538320000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>2.034432</v>
+        <v>2.0344319999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-225.591000</v>
+        <v>-225.59100000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>7335.517529</v>
+        <v>7335.5175289999997</v>
       </c>
       <c r="BJ14" s="1">
-        <v>2.037644</v>
+        <v>2.0376439999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1127.340000</v>
+        <v>1127.3399999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.822000</v>
+        <v>-360.822</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>7345.835308</v>
+        <v>7345.8353079999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>2.040510</v>
+        <v>2.0405099999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1257.230000</v>
+        <v>1257.23</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-570.689000</v>
+        <v>-570.68899999999996</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>7356.571214</v>
+        <v>7356.5712139999996</v>
       </c>
       <c r="BT14" s="1">
-        <v>2.043492</v>
+        <v>2.0434920000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1404.160000</v>
+        <v>1404.16</v>
       </c>
       <c r="BV14" s="1">
-        <v>-795.048000</v>
+        <v>-795.048</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>7367.383999</v>
+        <v>7367.3839989999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>2.046496</v>
+        <v>2.0464959999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1565.150000</v>
+        <v>1565.15</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1029.170000</v>
+        <v>-1029.17</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>7379.896575</v>
+        <v>7379.8965749999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>2.049971</v>
+        <v>2.0499710000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>1974.330000</v>
+        <v>1974.33</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1575.910000</v>
+        <v>-1575.91</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>7208.464818</v>
+        <v>7208.4648180000004</v>
       </c>
       <c r="B15" s="1">
         <v>2.002351</v>
       </c>
       <c r="C15" s="1">
-        <v>899.788000</v>
+        <v>899.78800000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-190.800000</v>
+        <v>-190.8</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>7218.905109</v>
+        <v>7218.9051090000003</v>
       </c>
       <c r="G15" s="1">
-        <v>2.005251</v>
+        <v>2.0052509999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>917.173000</v>
+        <v>917.173</v>
       </c>
       <c r="I15" s="1">
-        <v>-163.110000</v>
+        <v>-163.11000000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>7229.098886</v>
+        <v>7229.0988859999998</v>
       </c>
       <c r="L15" s="1">
-        <v>2.008083</v>
+        <v>2.0080830000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>940.618000</v>
+        <v>940.61800000000005</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.574000</v>
+        <v>-117.574</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>7239.409763</v>
+        <v>7239.4097629999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>2.010947</v>
+        <v>2.0109469999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>947.423000</v>
+        <v>947.423</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.668000</v>
+        <v>-102.66800000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>7249.546459</v>
+        <v>7249.5464590000001</v>
       </c>
       <c r="V15" s="1">
         <v>2.013763</v>
       </c>
       <c r="W15" s="1">
-        <v>954.123000</v>
+        <v>954.12300000000005</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.168600</v>
+        <v>-89.168599999999998</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>7260.016511</v>
+        <v>7260.0165109999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>2.016671</v>
+        <v>2.0166710000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.470000</v>
+        <v>961.47</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.723000</v>
+        <v>-79.722999999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>7270.164656</v>
+        <v>7270.1646559999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>2.019490</v>
+        <v>2.0194899999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.551000</v>
+        <v>966.55100000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.352100</v>
+        <v>-79.352099999999993</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>7280.366867</v>
+        <v>7280.3668669999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.022324</v>
+        <v>2.0223239999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.554000</v>
+        <v>974.55399999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.009800</v>
+        <v>-87.009799999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>7291.503044</v>
       </c>
       <c r="AP15" s="1">
-        <v>2.025418</v>
+        <v>2.0254180000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.695000</v>
+        <v>983.69500000000005</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.797000</v>
+        <v>-101.797</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>7302.559897</v>
+        <v>7302.5598970000001</v>
       </c>
       <c r="AU15" s="1">
         <v>2.028489</v>
       </c>
       <c r="AV15" s="1">
-        <v>995.036000</v>
+        <v>995.03599999999994</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.048000</v>
+        <v>-123.048</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>7313.648458</v>
+        <v>7313.6484579999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>2.031569</v>
+        <v>2.0315690000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB15" s="1">
-        <v>-141.583000</v>
+        <v>-141.583</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>7324.632164</v>
+        <v>7324.6321639999996</v>
       </c>
       <c r="BE15" s="1">
-        <v>2.034620</v>
+        <v>2.0346199999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.140000</v>
+        <v>1049.1400000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-225.586000</v>
+        <v>-225.58600000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>7335.893993</v>
+        <v>7335.8939929999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.037748</v>
+        <v>2.0377480000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1127.350000</v>
+        <v>1127.3499999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.844000</v>
+        <v>-360.84399999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>7346.254428</v>
+        <v>7346.2544280000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>2.040626</v>
+        <v>2.0406260000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1257.220000</v>
+        <v>1257.22</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-570.638000</v>
+        <v>-570.63800000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>7357.001781</v>
+        <v>7357.0017809999999</v>
       </c>
       <c r="BT15" s="1">
         <v>2.043612</v>
       </c>
       <c r="BU15" s="1">
-        <v>1404.090000</v>
+        <v>1404.09</v>
       </c>
       <c r="BV15" s="1">
-        <v>-795.143000</v>
+        <v>-795.14300000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>7368.136928</v>
+        <v>7368.1369279999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>2.046705</v>
+        <v>2.0467050000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1565.300000</v>
+        <v>1565.3</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1029.090000</v>
+        <v>-1029.0899999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>7380.108368</v>
+        <v>7380.1083680000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>2.050030</v>
+        <v>2.05003</v>
       </c>
       <c r="CE15" s="1">
-        <v>1974.620000</v>
+        <v>1974.62</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1574.270000</v>
+        <v>-1574.27</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>7208.804609</v>
+        <v>7208.8046089999998</v>
       </c>
       <c r="B16" s="1">
-        <v>2.002446</v>
+        <v>2.0024459999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>899.784000</v>
+        <v>899.78399999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-190.887000</v>
+        <v>-190.887</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>7219.249827</v>
+        <v>7219.2498269999996</v>
       </c>
       <c r="G16" s="1">
         <v>2.005347</v>
       </c>
       <c r="H16" s="1">
-        <v>917.529000</v>
+        <v>917.529</v>
       </c>
       <c r="I16" s="1">
-        <v>-162.757000</v>
+        <v>-162.75700000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>7229.518024</v>
       </c>
       <c r="L16" s="1">
-        <v>2.008199</v>
+        <v>2.0081989999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>940.602000</v>
+        <v>940.60199999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.741000</v>
+        <v>-117.741</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>7239.704345</v>
+        <v>7239.7043450000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>2.011029</v>
+        <v>2.0110290000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>947.426000</v>
+        <v>947.42600000000004</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.653000</v>
+        <v>-102.65300000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>7249.834635</v>
+        <v>7249.8346350000002</v>
       </c>
       <c r="V16" s="1">
         <v>2.013843</v>
       </c>
       <c r="W16" s="1">
-        <v>954.133000</v>
+        <v>954.13300000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.220000</v>
+        <v>-89.22</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>7260.362717</v>
       </c>
       <c r="AA16" s="1">
-        <v>2.016767</v>
+        <v>2.0167670000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.516000</v>
+        <v>961.51599999999996</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.916100</v>
+        <v>-79.9161</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>7270.507427</v>
+        <v>7270.5074269999996</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.019585</v>
+        <v>2.0195850000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.568000</v>
+        <v>966.56799999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.369400</v>
+        <v>-79.369399999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>7280.716578</v>
+        <v>7280.7165779999996</v>
       </c>
       <c r="AK16" s="1">
         <v>2.022421</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.561000</v>
+        <v>974.56100000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.036100</v>
+        <v>-87.036100000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>7292.226211</v>
+        <v>7292.2262110000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.025618</v>
+        <v>2.0256180000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.714000</v>
+        <v>983.71400000000006</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.755000</v>
+        <v>-101.755</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>7303.298404</v>
+        <v>7303.2984040000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>2.028694</v>
+        <v>2.0286940000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>995.041000</v>
+        <v>995.04100000000005</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.063000</v>
+        <v>-123.063</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>7314.007558</v>
+        <v>7314.0075580000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>2.031669</v>
+        <v>2.0316689999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.540000</v>
+        <v>1004.54</v>
       </c>
       <c r="BB16" s="1">
-        <v>-141.574000</v>
+        <v>-141.57400000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>7325.021192</v>
+        <v>7325.0211920000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>2.034728</v>
+        <v>2.0347279999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG16" s="1">
-        <v>-225.591000</v>
+        <v>-225.59100000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>7336.270458</v>
       </c>
       <c r="BJ16" s="1">
-        <v>2.037853</v>
+        <v>2.0378530000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1127.330000</v>
+        <v>1127.33</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.843000</v>
+        <v>-360.84300000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>7346.960271</v>
+        <v>7346.9602709999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>2.040822</v>
+        <v>2.0408219999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1257.220000</v>
+        <v>1257.22</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-570.626000</v>
+        <v>-570.62599999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>7357.721932</v>
+        <v>7357.7219320000004</v>
       </c>
       <c r="BT16" s="1">
         <v>2.043812</v>
       </c>
       <c r="BU16" s="1">
-        <v>1404.070000</v>
+        <v>1404.07</v>
       </c>
       <c r="BV16" s="1">
-        <v>-795.178000</v>
+        <v>-795.178</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>7368.287712</v>
+        <v>7368.2877120000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>2.046747</v>
+        <v>2.0467469999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1565.290000</v>
+        <v>1565.29</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1029.070000</v>
+        <v>-1029.07</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>7380.624206</v>
+        <v>7380.6242060000004</v>
       </c>
       <c r="CD16" s="1">
         <v>2.050173</v>
       </c>
       <c r="CE16" s="1">
-        <v>1974.860000</v>
+        <v>1974.86</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1574.460000</v>
+        <v>-1574.46</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>7209.225880</v>
+        <v>7209.22588</v>
       </c>
       <c r="B17" s="1">
-        <v>2.002563</v>
+        <v>2.0025629999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>899.680000</v>
+        <v>899.68</v>
       </c>
       <c r="D17" s="1">
-        <v>-190.847000</v>
+        <v>-190.84700000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>7219.679897</v>
       </c>
       <c r="G17" s="1">
-        <v>2.005467</v>
+        <v>2.0054669999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>917.411000</v>
+        <v>917.41099999999994</v>
       </c>
       <c r="I17" s="1">
-        <v>-163.010000</v>
+        <v>-163.01</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>7229.809158</v>
       </c>
       <c r="L17" s="1">
-        <v>2.008280</v>
+        <v>2.0082800000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>940.514000</v>
+        <v>940.51400000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.322000</v>
+        <v>-117.322</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>7240.051080</v>
+        <v>7240.0510800000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>2.011125</v>
+        <v>2.0111249999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>947.377000</v>
+        <v>947.37699999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.619000</v>
+        <v>-102.619</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>7250.180843</v>
+        <v>7250.1808430000001</v>
       </c>
       <c r="V17" s="1">
-        <v>2.013939</v>
+        <v>2.0139390000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>954.194000</v>
+        <v>954.19399999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.174100</v>
+        <v>-89.174099999999996</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>7260.710413</v>
+        <v>7260.7104129999998</v>
       </c>
       <c r="AA17" s="1">
         <v>2.016864</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.528000</v>
+        <v>961.52800000000002</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.800100</v>
+        <v>-79.8001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>7270.851615</v>
+        <v>7270.8516149999996</v>
       </c>
       <c r="AF17" s="1">
-        <v>2.019681</v>
+        <v>2.0196809999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.609000</v>
+        <v>966.60900000000004</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.353700</v>
+        <v>-79.353700000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>7281.412929</v>
+        <v>7281.4129290000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>2.022615</v>
+        <v>2.0226150000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.543000</v>
+        <v>974.54300000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.037000</v>
+        <v>-87.037000000000006</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>7292.613587</v>
+        <v>7292.6135869999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.025726</v>
+        <v>2.0257260000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.721000</v>
+        <v>983.721</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.751000</v>
+        <v>-101.751</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>7303.680820</v>
+        <v>7303.6808199999996</v>
       </c>
       <c r="AU17" s="1">
-        <v>2.028800</v>
+        <v>2.0287999999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>995.025000</v>
+        <v>995.02499999999998</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.039000</v>
+        <v>-123.039</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>7314.368118</v>
+        <v>7314.3681180000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.031769</v>
+        <v>2.0317690000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB17" s="1">
-        <v>-141.567000</v>
+        <v>-141.56700000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>7325.704679</v>
+        <v>7325.7046790000004</v>
       </c>
       <c r="BE17" s="1">
-        <v>2.034918</v>
+        <v>2.0349179999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-225.599000</v>
+        <v>-225.59899999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>7336.949480</v>
+        <v>7336.9494800000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>2.038042</v>
+        <v>2.0380419999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1127.330000</v>
+        <v>1127.33</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.831000</v>
+        <v>-360.83100000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>7347.069397</v>
+        <v>7347.0693970000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>2.040853</v>
+        <v>2.0408529999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1257.230000</v>
+        <v>1257.23</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-570.641000</v>
+        <v>-570.64099999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>7357.846961</v>
+        <v>7357.8469610000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.043846</v>
+        <v>2.0438459999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1404.140000</v>
+        <v>1404.14</v>
       </c>
       <c r="BV17" s="1">
-        <v>-795.194000</v>
+        <v>-795.19399999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>7368.706862</v>
       </c>
       <c r="BY17" s="1">
-        <v>2.046863</v>
+        <v>2.0468630000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1565.210000</v>
+        <v>1565.21</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1029.060000</v>
+        <v>-1029.06</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>7381.174799</v>
+        <v>7381.1747990000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>2.050326</v>
+        <v>2.0503260000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1974.990000</v>
+        <v>1974.99</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1575.550000</v>
+        <v>-1575.55</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>7209.506912</v>
+        <v>7209.5069119999998</v>
       </c>
       <c r="B18" s="1">
-        <v>2.002641</v>
+        <v>2.0026410000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>899.741000</v>
+        <v>899.74099999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-190.940000</v>
+        <v>-190.94</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>7219.937314</v>
+        <v>7219.9373139999998</v>
       </c>
       <c r="G18" s="1">
         <v>2.005538</v>
       </c>
       <c r="H18" s="1">
-        <v>917.187000</v>
+        <v>917.18700000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-162.664000</v>
+        <v>-162.66399999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>7230.160325</v>
+        <v>7230.1603249999998</v>
       </c>
       <c r="L18" s="1">
         <v>2.008378</v>
       </c>
       <c r="M18" s="1">
-        <v>940.389000</v>
+        <v>940.38900000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.540000</v>
+        <v>-117.54</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>7240.398247</v>
+        <v>7240.3982470000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>2.011222</v>
+        <v>2.0112220000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>947.447000</v>
+        <v>947.447</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.654000</v>
+        <v>-102.654</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>7250.525066</v>
+        <v>7250.5250660000002</v>
       </c>
       <c r="V18" s="1">
-        <v>2.014035</v>
+        <v>2.0140349999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>954.121000</v>
+        <v>954.12099999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.151100</v>
+        <v>-89.1511</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>7261.410779</v>
+        <v>7261.4107789999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.017059</v>
+        <v>2.0170590000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.520000</v>
+        <v>961.52</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.739300</v>
+        <v>-79.7393</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>7271.537621</v>
+        <v>7271.5376210000004</v>
       </c>
       <c r="AF18" s="1">
-        <v>2.019872</v>
+        <v>2.0198719999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.574000</v>
+        <v>966.57399999999996</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.377300</v>
+        <v>-79.377300000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>7281.758641</v>
+        <v>7281.7586410000004</v>
       </c>
       <c r="AK18" s="1">
-        <v>2.022711</v>
+        <v>2.0227110000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.540000</v>
+        <v>974.54</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.040900</v>
+        <v>-87.040899999999993</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>7292.973224</v>
+        <v>7292.9732240000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>2.025826</v>
+        <v>2.0258259999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.707000</v>
+        <v>983.70699999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.765000</v>
+        <v>-101.765</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>7304.043923</v>
+        <v>7304.0439230000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>2.028901</v>
+        <v>2.0289009999999998</v>
       </c>
       <c r="AV18" s="1">
-        <v>995.026000</v>
+        <v>995.02599999999995</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.086000</v>
+        <v>-123.086</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>7315.029285</v>
+        <v>7315.0292849999996</v>
       </c>
       <c r="AZ18" s="1">
-        <v>2.031953</v>
+        <v>2.0319530000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB18" s="1">
-        <v>-141.601000</v>
+        <v>-141.601</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>7326.122840</v>
+        <v>7326.12284</v>
       </c>
       <c r="BE18" s="1">
         <v>2.035034</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG18" s="1">
-        <v>-225.592000</v>
+        <v>-225.59200000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>7337.061575</v>
+        <v>7337.0615749999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>2.038073</v>
+        <v>2.0380729999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1127.320000</v>
+        <v>1127.32</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.863000</v>
+        <v>-360.863</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>7347.498928</v>
@@ -4788,724 +5204,724 @@
         <v>2.040972</v>
       </c>
       <c r="BP18" s="1">
-        <v>1257.220000</v>
+        <v>1257.22</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-570.627000</v>
+        <v>-570.62699999999995</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>7358.284892</v>
+        <v>7358.2848919999997</v>
       </c>
       <c r="BT18" s="1">
         <v>2.043968</v>
       </c>
       <c r="BU18" s="1">
-        <v>1404.100000</v>
+        <v>1404.1</v>
       </c>
       <c r="BV18" s="1">
-        <v>-795.299000</v>
+        <v>-795.29899999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>7369.131901</v>
+        <v>7369.1319009999997</v>
       </c>
       <c r="BY18" s="1">
-        <v>2.046981</v>
+        <v>2.0469810000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1565.260000</v>
+        <v>1565.26</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1029.110000</v>
+        <v>-1029.1099999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>7381.703533</v>
+        <v>7381.7035329999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>2.050473</v>
+        <v>2.0504730000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>1974.870000</v>
+        <v>1974.87</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1573.840000</v>
+        <v>-1573.84</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>7209.848192</v>
+        <v>7209.8481920000004</v>
       </c>
       <c r="B19" s="1">
-        <v>2.002736</v>
+        <v>2.0027360000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>899.791000</v>
+        <v>899.79100000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>-190.913000</v>
+        <v>-190.91300000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>7220.489857</v>
+        <v>7220.4898569999996</v>
       </c>
       <c r="G19" s="1">
-        <v>2.005692</v>
+        <v>2.0056919999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>917.253000</v>
+        <v>917.25300000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-163.207000</v>
+        <v>-163.20699999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>7230.503556</v>
+        <v>7230.5035559999997</v>
       </c>
       <c r="L19" s="1">
         <v>2.008473</v>
       </c>
       <c r="M19" s="1">
-        <v>940.517000</v>
+        <v>940.51700000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.771000</v>
+        <v>-117.771</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>7241.096647</v>
+        <v>7241.0966470000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>2.011416</v>
+        <v>2.0114160000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>947.442000</v>
+        <v>947.44200000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.662000</v>
+        <v>-102.66200000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>7251.211561</v>
+        <v>7251.2115610000001</v>
       </c>
       <c r="V19" s="1">
-        <v>2.014225</v>
+        <v>2.0142250000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>954.167000</v>
+        <v>954.16700000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.185800</v>
+        <v>-89.1858</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>7261.758459</v>
+        <v>7261.7584589999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.017155</v>
+        <v>2.0171549999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.509000</v>
+        <v>961.50900000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.861400</v>
+        <v>-79.861400000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>7271.880318</v>
+        <v>7271.8803180000004</v>
       </c>
       <c r="AF19" s="1">
-        <v>2.019967</v>
+        <v>2.0199669999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.604000</v>
+        <v>966.60400000000004</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.418700</v>
+        <v>-79.418700000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>7282.109312</v>
+        <v>7282.1093119999996</v>
       </c>
       <c r="AK19" s="1">
-        <v>2.022808</v>
+        <v>2.0228079999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.532000</v>
+        <v>974.53200000000004</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.034100</v>
+        <v>-87.034099999999995</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>7293.645793</v>
+        <v>7293.6457929999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>2.026013</v>
+        <v>2.0260129999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.708000</v>
+        <v>983.70799999999997</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.758000</v>
+        <v>-101.758</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>7304.708563</v>
+        <v>7304.7085630000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.029086</v>
+        <v>2.0290859999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>995.029000</v>
+        <v>995.029</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.057000</v>
+        <v>-123.057</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>7315.441460</v>
+        <v>7315.44146</v>
       </c>
       <c r="AZ19" s="1">
-        <v>2.032067</v>
+        <v>2.0320670000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.520000</v>
+        <v>1004.52</v>
       </c>
       <c r="BB19" s="1">
-        <v>-141.572000</v>
+        <v>-141.572</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>7326.484913</v>
+        <v>7326.4849130000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>2.035135</v>
+        <v>2.0351349999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.190000</v>
+        <v>1049.19</v>
       </c>
       <c r="BG19" s="1">
-        <v>-225.587000</v>
+        <v>-225.58699999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>7337.421175</v>
+        <v>7337.4211750000004</v>
       </c>
       <c r="BJ19" s="1">
         <v>2.038173</v>
       </c>
       <c r="BK19" s="1">
-        <v>1127.330000</v>
+        <v>1127.33</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.827000</v>
+        <v>-360.827</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>7347.894699</v>
+        <v>7347.8946990000004</v>
       </c>
       <c r="BO19" s="1">
-        <v>2.041082</v>
+        <v>2.0410819999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1257.280000</v>
+        <v>1257.28</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-570.654000</v>
+        <v>-570.654</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>7358.710955</v>
+        <v>7358.7109549999996</v>
       </c>
       <c r="BT19" s="1">
-        <v>2.044086</v>
+        <v>2.0440860000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1404.040000</v>
+        <v>1404.04</v>
       </c>
       <c r="BV19" s="1">
-        <v>-795.387000</v>
+        <v>-795.38699999999994</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>7369.582803</v>
+        <v>7369.5828030000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>2.047106</v>
+        <v>2.0471059999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1565.180000</v>
+        <v>1565.18</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1029.220000</v>
+        <v>-1029.22</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>7382.219837</v>
+        <v>7382.2198369999996</v>
       </c>
       <c r="CD19" s="1">
-        <v>2.050617</v>
+        <v>2.0506169999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1973.110000</v>
+        <v>1973.11</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1575.850000</v>
+        <v>-1575.85</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>7210.191896</v>
+        <v>7210.1918960000003</v>
       </c>
       <c r="B20" s="1">
         <v>2.002831</v>
       </c>
       <c r="C20" s="1">
-        <v>899.527000</v>
+        <v>899.52700000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-190.854000</v>
+        <v>-190.85400000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>7221.002193</v>
+        <v>7221.0021930000003</v>
       </c>
       <c r="G20" s="1">
-        <v>2.005834</v>
+        <v>2.0058340000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>917.231000</v>
+        <v>917.23099999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-163.113000</v>
+        <v>-163.113</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>7231.195507</v>
+        <v>7231.1955070000004</v>
       </c>
       <c r="L20" s="1">
-        <v>2.008665</v>
+        <v>2.0086650000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>940.469000</v>
+        <v>940.46900000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-117.601000</v>
+        <v>-117.601</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>7241.444310</v>
+        <v>7241.4443099999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>2.011512</v>
+        <v>2.0115120000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>947.417000</v>
+        <v>947.41700000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.702000</v>
+        <v>-102.702</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>7251.554761</v>
+        <v>7251.5547610000003</v>
       </c>
       <c r="V20" s="1">
-        <v>2.014321</v>
+        <v>2.0143209999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>954.131000</v>
+        <v>954.13099999999997</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.201300</v>
+        <v>-89.201300000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>7262.108171</v>
+        <v>7262.1081709999999</v>
       </c>
       <c r="AA20" s="1">
         <v>2.017252</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.528000</v>
+        <v>961.52800000000002</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.765400</v>
+        <v>-79.7654</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>7272.227021</v>
+        <v>7272.2270209999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>2.020063</v>
+        <v>2.0200629999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.578000</v>
+        <v>966.57799999999997</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.358300</v>
+        <v>-79.3583</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>7282.755599</v>
+        <v>7282.7555990000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>2.022988</v>
+        <v>2.0229879999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.553000</v>
+        <v>974.553</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.031000</v>
+        <v>-87.031000000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>7294.081744</v>
+        <v>7294.0817440000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>2.026134</v>
+        <v>2.0261339999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.720000</v>
+        <v>983.72</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.752000</v>
+        <v>-101.752</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>7305.170802</v>
+        <v>7305.1708019999996</v>
       </c>
       <c r="AU20" s="1">
-        <v>2.029214</v>
+        <v>2.0292140000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>995.004000</v>
+        <v>995.00400000000002</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.053000</v>
+        <v>-123.053</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>7315.827380</v>
+        <v>7315.8273799999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>2.032174</v>
+        <v>2.0321739999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.540000</v>
+        <v>1004.54</v>
       </c>
       <c r="BB20" s="1">
-        <v>-141.579000</v>
+        <v>-141.57900000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>7326.847495</v>
       </c>
       <c r="BE20" s="1">
-        <v>2.035235</v>
+        <v>2.0352350000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG20" s="1">
-        <v>-225.603000</v>
+        <v>-225.60300000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>7337.798167</v>
+        <v>7337.7981669999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>2.038277</v>
+        <v>2.0382769999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1127.320000</v>
+        <v>1127.32</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.820000</v>
+        <v>-360.82</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>7348.316329</v>
+        <v>7348.3163290000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>2.041199</v>
+        <v>2.0411990000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1257.190000</v>
+        <v>1257.19</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-570.653000</v>
+        <v>-570.65300000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>7359.124124</v>
+        <v>7359.1241239999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>2.044201</v>
+        <v>2.0442010000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>1403.950000</v>
+        <v>1403.95</v>
       </c>
       <c r="BV20" s="1">
-        <v>-795.388000</v>
+        <v>-795.38800000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>7370.009820</v>
+        <v>7370.0098200000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>2.047225</v>
+        <v>2.0472250000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1565.190000</v>
+        <v>1565.19</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1029.080000</v>
+        <v>-1029.08</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>7382.756540</v>
+        <v>7382.7565400000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>2.050766</v>
+        <v>2.0507659999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1974.960000</v>
+        <v>1974.96</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1574.820000</v>
+        <v>-1574.82</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>7210.873391</v>
+        <v>7210.8733910000001</v>
       </c>
       <c r="B21" s="1">
-        <v>2.003020</v>
+        <v>2.0030199999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>899.704000</v>
+        <v>899.70399999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-190.918000</v>
+        <v>-190.91800000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>7221.337489</v>
+        <v>7221.3374889999996</v>
       </c>
       <c r="G21" s="1">
-        <v>2.005927</v>
+        <v>2.0059269999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>917.653000</v>
+        <v>917.65300000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-162.724000</v>
+        <v>-162.72399999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>7231.543703</v>
+        <v>7231.5437030000003</v>
       </c>
       <c r="L21" s="1">
-        <v>2.008762</v>
+        <v>2.0087619999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>940.659000</v>
+        <v>940.65899999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-117.540000</v>
+        <v>-117.54</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>7241.793527</v>
+        <v>7241.7935269999998</v>
       </c>
       <c r="Q21" s="1">
         <v>2.011609</v>
       </c>
       <c r="R21" s="1">
-        <v>947.419000</v>
+        <v>947.41899999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.654000</v>
+        <v>-102.654</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>7251.897993</v>
+        <v>7251.8979929999996</v>
       </c>
       <c r="V21" s="1">
-        <v>2.014416</v>
+        <v>2.0144160000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>954.171000</v>
+        <v>954.17100000000005</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.230100</v>
+        <v>-89.230099999999993</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>7262.758891</v>
+        <v>7262.7588910000004</v>
       </c>
       <c r="AA21" s="1">
         <v>2.017433</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.561000</v>
+        <v>961.56100000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.835900</v>
+        <v>-79.835899999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>7272.891660</v>
+        <v>7272.8916600000002</v>
       </c>
       <c r="AF21" s="1">
         <v>2.020248</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.566000</v>
+        <v>966.56600000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.355600</v>
+        <v>-79.355599999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>7283.155376</v>
+        <v>7283.1553759999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>2.023099</v>
+        <v>2.0230990000000002</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.542000</v>
+        <v>974.54200000000003</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.011800</v>
+        <v>-87.011799999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>7294.441872</v>
+        <v>7294.4418720000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>2.026234</v>
+        <v>2.0262340000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.732000</v>
+        <v>983.73199999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.771000</v>
+        <v>-101.771</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>7305.535857</v>
+        <v>7305.5358569999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>2.029316</v>
+        <v>2.0293160000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>995.016000</v>
+        <v>995.01599999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.068000</v>
+        <v>-123.068</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>7316.184467</v>
@@ -5514,135 +5930,135 @@
         <v>2.032273</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.540000</v>
+        <v>1004.54</v>
       </c>
       <c r="BB21" s="1">
-        <v>-141.583000</v>
+        <v>-141.583</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>7327.268068</v>
+        <v>7327.2680680000003</v>
       </c>
       <c r="BE21" s="1">
-        <v>2.035352</v>
+        <v>2.0353520000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-225.612000</v>
+        <v>-225.61199999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>7338.219275</v>
+        <v>7338.2192750000004</v>
       </c>
       <c r="BJ21" s="1">
-        <v>2.038394</v>
+        <v>2.0383939999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1127.340000</v>
+        <v>1127.3399999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.839000</v>
+        <v>-360.839</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>7348.713466</v>
+        <v>7348.7134660000002</v>
       </c>
       <c r="BO21" s="1">
         <v>2.041309</v>
       </c>
       <c r="BP21" s="1">
-        <v>1257.220000</v>
+        <v>1257.22</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-570.628000</v>
+        <v>-570.62800000000004</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>7359.553658</v>
+        <v>7359.5536579999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>2.044320</v>
+        <v>2.0443199999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1403.890000</v>
+        <v>1403.89</v>
       </c>
       <c r="BV21" s="1">
-        <v>-795.482000</v>
+        <v>-795.48199999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>7370.430923</v>
+        <v>7370.4309229999999</v>
       </c>
       <c r="BY21" s="1">
         <v>2.047342</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1565.160000</v>
+        <v>1565.16</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1029.090000</v>
+        <v>-1029.0899999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>7383.300619</v>
+        <v>7383.3006189999996</v>
       </c>
       <c r="CD21" s="1">
-        <v>2.050917</v>
+        <v>2.0509170000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1973.350000</v>
+        <v>1973.35</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1574.210000</v>
+        <v>-1574.21</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>7211.216622</v>
+        <v>7211.2166219999999</v>
       </c>
       <c r="B22" s="1">
-        <v>2.003116</v>
+        <v>2.0031159999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>899.896000</v>
+        <v>899.89599999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-190.974000</v>
+        <v>-190.97399999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>7221.684207</v>
+        <v>7221.6842070000002</v>
       </c>
       <c r="G22" s="1">
-        <v>2.006023</v>
+        <v>2.0060229999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>917.419000</v>
+        <v>917.41899999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-162.997000</v>
+        <v>-162.99700000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>7231.888387</v>
@@ -5651,255 +6067,255 @@
         <v>2.008858</v>
       </c>
       <c r="M22" s="1">
-        <v>940.568000</v>
+        <v>940.56799999999998</v>
       </c>
       <c r="N22" s="1">
-        <v>-117.569000</v>
+        <v>-117.569</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>7242.445733</v>
+        <v>7242.4457329999996</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.011790</v>
+        <v>2.01179</v>
       </c>
       <c r="R22" s="1">
-        <v>947.418000</v>
+        <v>947.41800000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.626000</v>
+        <v>-102.626</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>7252.544775</v>
+        <v>7252.5447750000003</v>
       </c>
       <c r="V22" s="1">
-        <v>2.014596</v>
+        <v>2.0145960000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>954.188000</v>
+        <v>954.18799999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.171300</v>
+        <v>-89.171300000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>7263.154363</v>
+        <v>7263.1543629999996</v>
       </c>
       <c r="AA22" s="1">
-        <v>2.017543</v>
+        <v>2.0175429999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.573000</v>
+        <v>961.57299999999998</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.776700</v>
+        <v>-79.776700000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>7273.258236</v>
+        <v>7273.2582359999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>2.020350</v>
+        <v>2.0203500000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.577000</v>
+        <v>966.577</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.358900</v>
+        <v>-79.358900000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>7283.503086</v>
+        <v>7283.5030859999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>2.023195</v>
+        <v>2.0231949999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.534000</v>
+        <v>974.53399999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.046300</v>
+        <v>-87.046300000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>7294.798960</v>
+        <v>7294.7989600000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>2.026333</v>
+        <v>2.0263330000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.714000</v>
+        <v>983.71400000000006</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.788000</v>
+        <v>-101.788</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>7305.900489</v>
+        <v>7305.9004889999997</v>
       </c>
       <c r="AU22" s="1">
         <v>2.029417</v>
       </c>
       <c r="AV22" s="1">
-        <v>995.025000</v>
+        <v>995.02499999999998</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.056000</v>
+        <v>-123.056</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>7316.596644</v>
+        <v>7316.5966440000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>2.032388</v>
+        <v>2.0323880000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB22" s="1">
-        <v>-141.569000</v>
+        <v>-141.56899999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>7327.569171</v>
+        <v>7327.5691710000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>2.035436</v>
+        <v>2.0354359999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG22" s="1">
-        <v>-225.577000</v>
+        <v>-225.577</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>7338.547591</v>
+        <v>7338.5475909999996</v>
       </c>
       <c r="BJ22" s="1">
-        <v>2.038485</v>
+        <v>2.0384850000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1127.350000</v>
+        <v>1127.3499999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.834000</v>
+        <v>-360.834</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>7349.131721</v>
+        <v>7349.1317209999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>2.041425</v>
+        <v>2.0414249999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1257.210000</v>
+        <v>1257.21</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-570.691000</v>
+        <v>-570.69100000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>7359.980713</v>
+        <v>7359.9807129999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>2.044439</v>
+        <v>2.0444390000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1403.890000</v>
+        <v>1403.89</v>
       </c>
       <c r="BV22" s="1">
-        <v>-795.388000</v>
+        <v>-795.38800000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>7370.851563</v>
+        <v>7370.8515630000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>2.047459</v>
+        <v>2.0474589999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1565.190000</v>
+        <v>1565.19</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1029.190000</v>
+        <v>-1029.19</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>7383.842746</v>
+        <v>7383.8427460000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>2.051067</v>
+        <v>2.0510670000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>1973.960000</v>
+        <v>1973.96</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1575.650000</v>
+        <v>-1575.65</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>7211.560349</v>
+        <v>7211.5603490000003</v>
       </c>
       <c r="B23" s="1">
-        <v>2.003211</v>
+        <v>2.0032109999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>899.707000</v>
+        <v>899.70699999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-190.897000</v>
+        <v>-190.89699999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>7222.328034</v>
+        <v>7222.3280340000001</v>
       </c>
       <c r="G23" s="1">
         <v>2.006202</v>
       </c>
       <c r="H23" s="1">
-        <v>917.682000</v>
+        <v>917.68200000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-162.656000</v>
+        <v>-162.65600000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>7232.540626</v>
@@ -5908,996 +6324,997 @@
         <v>2.009039</v>
       </c>
       <c r="M23" s="1">
-        <v>940.563000</v>
+        <v>940.56299999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.606000</v>
+        <v>-117.60599999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>7242.840548</v>
+        <v>7242.8405480000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.011900</v>
+        <v>2.0118999999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>947.470000</v>
+        <v>947.47</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.624000</v>
+        <v>-102.624</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>7252.927722</v>
+        <v>7252.9277220000004</v>
       </c>
       <c r="V23" s="1">
-        <v>2.014702</v>
+        <v>2.0147020000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>954.091000</v>
+        <v>954.09100000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.079700</v>
+        <v>-89.079700000000003</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>7263.502889</v>
+        <v>7263.5028890000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.017640</v>
+        <v>2.0176400000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.514000</v>
+        <v>961.51400000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.845600</v>
+        <v>-79.845600000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>7273.599979</v>
+        <v>7273.5999789999996</v>
       </c>
       <c r="AF23" s="1">
-        <v>2.020444</v>
+        <v>2.0204439999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.591000</v>
+        <v>966.59100000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.356800</v>
+        <v>-79.356800000000007</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>7283.852620</v>
+        <v>7283.8526199999997</v>
       </c>
       <c r="AK23" s="1">
-        <v>2.023292</v>
+        <v>2.0232920000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.551000</v>
+        <v>974.55100000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.017900</v>
+        <v>-87.017899999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>7295.207168</v>
+        <v>7295.2071679999999</v>
       </c>
       <c r="AP23" s="1">
         <v>2.026446</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.710000</v>
+        <v>983.71</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.782000</v>
+        <v>-101.782</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>7306.335410</v>
+        <v>7306.3354099999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>2.029538</v>
+        <v>2.0295380000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>995.017000</v>
+        <v>995.01700000000005</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.055000</v>
+        <v>-123.05500000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>7316.904690</v>
+        <v>7316.9046900000003</v>
       </c>
       <c r="AZ23" s="1">
-        <v>2.032474</v>
+        <v>2.0324740000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.530000</v>
+        <v>1004.53</v>
       </c>
       <c r="BB23" s="1">
-        <v>-141.597000</v>
+        <v>-141.59700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>7327.929732</v>
+        <v>7327.9297319999996</v>
       </c>
       <c r="BE23" s="1">
         <v>2.035536</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG23" s="1">
-        <v>-225.601000</v>
+        <v>-225.601</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>7338.946405</v>
+        <v>7338.9464049999997</v>
       </c>
       <c r="BJ23" s="1">
-        <v>2.038596</v>
+        <v>2.0385960000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1127.340000</v>
+        <v>1127.3399999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.827000</v>
+        <v>-360.827</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>7349.532023</v>
+        <v>7349.5320229999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>2.041537</v>
+        <v>2.0415369999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1257.190000</v>
+        <v>1257.19</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-570.648000</v>
+        <v>-570.64800000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>7360.393417</v>
+        <v>7360.3934170000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>2.044554</v>
+        <v>2.0445540000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1403.840000</v>
+        <v>1403.84</v>
       </c>
       <c r="BV23" s="1">
-        <v>-795.469000</v>
+        <v>-795.46900000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>7371.281099</v>
+        <v>7371.2810989999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>2.047578</v>
+        <v>2.0475780000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1565.150000</v>
+        <v>1565.15</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1029.030000</v>
+        <v>-1029.03</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>7384.381898</v>
+        <v>7384.3818979999996</v>
       </c>
       <c r="CD23" s="1">
-        <v>2.051217</v>
+        <v>2.0512169999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>1974.500000</v>
+        <v>1974.5</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1574.170000</v>
+        <v>-1574.17</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>7212.207628</v>
+        <v>7212.2076280000001</v>
       </c>
       <c r="B24" s="1">
-        <v>2.003391</v>
+        <v>2.0033910000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>899.590000</v>
+        <v>899.59</v>
       </c>
       <c r="D24" s="1">
-        <v>-190.845000</v>
+        <v>-190.845</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>7222.716863</v>
+        <v>7222.7168629999996</v>
       </c>
       <c r="G24" s="1">
-        <v>2.006310</v>
+        <v>2.00631</v>
       </c>
       <c r="H24" s="1">
-        <v>917.241000</v>
+        <v>917.24099999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-162.871000</v>
+        <v>-162.87100000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>7232.923758</v>
+        <v>7232.9237579999999</v>
       </c>
       <c r="L24" s="1">
-        <v>2.009145</v>
+        <v>2.0091450000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>940.489000</v>
+        <v>940.48900000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.644000</v>
+        <v>-117.64400000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>7243.187747</v>
+        <v>7243.1877469999999</v>
       </c>
       <c r="Q24" s="1">
         <v>2.011997</v>
       </c>
       <c r="R24" s="1">
-        <v>947.472000</v>
+        <v>947.47199999999998</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.642000</v>
+        <v>-102.642</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>7253.272407</v>
+        <v>7253.2724070000004</v>
       </c>
       <c r="V24" s="1">
-        <v>2.014798</v>
+        <v>2.0147979999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>954.120000</v>
+        <v>954.12</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.203800</v>
+        <v>-89.203800000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>7263.850585</v>
+        <v>7263.8505850000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>2.017736</v>
+        <v>2.0177360000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.565000</v>
+        <v>961.56500000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.794100</v>
+        <v>-79.7941</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>7274.016587</v>
+        <v>7274.0165870000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.020560</v>
+        <v>2.0205600000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.578000</v>
+        <v>966.57799999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.323800</v>
+        <v>-79.323800000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>7284.264429</v>
+        <v>7284.2644289999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>2.023407</v>
+        <v>2.0234070000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.568000</v>
+        <v>974.56799999999998</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.043600</v>
+        <v>-87.043599999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>7295.521631</v>
+        <v>7295.5216309999996</v>
       </c>
       <c r="AP24" s="1">
-        <v>2.026534</v>
+        <v>2.0265339999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.704000</v>
+        <v>983.70399999999995</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.767000</v>
+        <v>-101.767</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>7306.632549</v>
+        <v>7306.6325489999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>2.029620</v>
+        <v>2.02962</v>
       </c>
       <c r="AV24" s="1">
-        <v>995.025000</v>
+        <v>995.02499999999998</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.079000</v>
+        <v>-123.07899999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>7317.259299</v>
+        <v>7317.2592990000003</v>
       </c>
       <c r="AZ24" s="1">
         <v>2.032572</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.560000</v>
+        <v>1004.56</v>
       </c>
       <c r="BB24" s="1">
-        <v>-141.595000</v>
+        <v>-141.595</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>7328.287875</v>
       </c>
       <c r="BE24" s="1">
-        <v>2.035636</v>
+        <v>2.0356359999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG24" s="1">
-        <v>-225.600000</v>
+        <v>-225.6</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>7339.318901</v>
+        <v>7339.3189009999996</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.038700</v>
+        <v>2.0387</v>
       </c>
       <c r="BK24" s="1">
-        <v>1127.330000</v>
+        <v>1127.33</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.799000</v>
+        <v>-360.79899999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>7349.954088</v>
+        <v>7349.9540880000004</v>
       </c>
       <c r="BO24" s="1">
-        <v>2.041654</v>
+        <v>2.0416539999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1257.220000</v>
+        <v>1257.22</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-570.647000</v>
+        <v>-570.64700000000005</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>7360.819448</v>
+        <v>7360.8194480000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>2.044672</v>
+        <v>2.0446719999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1403.740000</v>
+        <v>1403.74</v>
       </c>
       <c r="BV24" s="1">
-        <v>-795.484000</v>
+        <v>-795.48400000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>7371.694251</v>
+        <v>7371.6942509999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>2.047693</v>
+        <v>2.0476930000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1565.160000</v>
+        <v>1565.16</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1029.090000</v>
+        <v>-1029.0899999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>7384.922536</v>
       </c>
       <c r="CD24" s="1">
-        <v>2.051367</v>
+        <v>2.0513669999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1973.190000</v>
+        <v>1973.19</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1575.640000</v>
+        <v>-1575.64</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>7212.583596</v>
+        <v>7212.5835960000004</v>
       </c>
       <c r="B25" s="1">
         <v>2.003495</v>
       </c>
       <c r="C25" s="1">
-        <v>899.648000</v>
+        <v>899.64800000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-190.887000</v>
+        <v>-190.887</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>7223.062105</v>
       </c>
       <c r="G25" s="1">
-        <v>2.006406</v>
+        <v>2.0064060000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>916.982000</v>
+        <v>916.98199999999997</v>
       </c>
       <c r="I25" s="1">
-        <v>-162.771000</v>
+        <v>-162.77099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>7233.269280</v>
+        <v>7233.2692800000004</v>
       </c>
       <c r="L25" s="1">
-        <v>2.009241</v>
+        <v>2.0092409999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>940.641000</v>
+        <v>940.64099999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-117.491000</v>
+        <v>-117.491</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>7243.538420</v>
+        <v>7243.5384199999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>2.012094</v>
+        <v>2.0120939999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>947.445000</v>
+        <v>947.44500000000005</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.674000</v>
+        <v>-102.67400000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>7253.615142</v>
+        <v>7253.6151419999997</v>
       </c>
       <c r="V25" s="1">
-        <v>2.014893</v>
+        <v>2.0148929999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>954.108000</v>
+        <v>954.10799999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.150500</v>
+        <v>-89.150499999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>7264.270936</v>
+        <v>7264.2709359999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>2.017853</v>
+        <v>2.0178530000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.415000</v>
+        <v>961.41499999999996</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.894200</v>
+        <v>-79.894199999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>7274.313723</v>
+        <v>7274.3137230000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.020643</v>
+        <v>2.0206430000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.560000</v>
+        <v>966.56</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.350000</v>
+        <v>-79.349999999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>7284.560541</v>
+        <v>7284.5605409999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>2.023489</v>
+        <v>2.0234890000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.533000</v>
+        <v>974.53300000000002</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.049000</v>
+        <v>-87.049000000000007</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>7295.881726</v>
+        <v>7295.8817259999996</v>
       </c>
       <c r="AP25" s="1">
         <v>2.026634</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.730000</v>
+        <v>983.73</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.786000</v>
+        <v>-101.786</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>7306.993601</v>
+        <v>7306.9936010000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>2.029720</v>
+        <v>2.0297200000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.997000</v>
+        <v>994.99699999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.060000</v>
+        <v>-123.06</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>7317.621874</v>
+        <v>7317.6218740000004</v>
       </c>
       <c r="AZ25" s="1">
         <v>2.032673</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.530000</v>
+        <v>1004.53</v>
       </c>
       <c r="BB25" s="1">
-        <v>-141.575000</v>
+        <v>-141.57499999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>7329.013027</v>
       </c>
       <c r="BE25" s="1">
-        <v>2.035837</v>
+        <v>2.0358369999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG25" s="1">
-        <v>-225.619000</v>
+        <v>-225.619</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>7340.076756</v>
+        <v>7340.0767560000004</v>
       </c>
       <c r="BJ25" s="1">
-        <v>2.038910</v>
+        <v>2.03891</v>
       </c>
       <c r="BK25" s="1">
-        <v>1127.350000</v>
+        <v>1127.3499999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.840000</v>
+        <v>-360.84</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>7350.351878</v>
+        <v>7350.3518780000004</v>
       </c>
       <c r="BO25" s="1">
-        <v>2.041764</v>
+        <v>2.0417640000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1257.190000</v>
+        <v>1257.19</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-570.660000</v>
+        <v>-570.66</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>7361.250472</v>
+        <v>7361.2504719999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>2.044792</v>
+        <v>2.0447920000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1403.700000</v>
+        <v>1403.7</v>
       </c>
       <c r="BV25" s="1">
-        <v>-795.391000</v>
+        <v>-795.39099999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>7372.147577</v>
+        <v>7372.1475769999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>2.047819</v>
+        <v>2.0478190000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1565.180000</v>
+        <v>1565.18</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1029.090000</v>
+        <v>-1029.0899999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>7385.768713</v>
+        <v>7385.7687130000004</v>
       </c>
       <c r="CD25" s="1">
-        <v>2.051602</v>
+        <v>2.0516019999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1973.470000</v>
+        <v>1973.47</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1573.760000</v>
+        <v>-1573.76</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>7212.927355</v>
+        <v>7212.9273549999998</v>
       </c>
       <c r="B26" s="1">
-        <v>2.003591</v>
+        <v>2.0035910000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>899.628000</v>
+        <v>899.62800000000004</v>
       </c>
       <c r="D26" s="1">
-        <v>-190.867000</v>
+        <v>-190.86699999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>7223.408813</v>
       </c>
       <c r="G26" s="1">
-        <v>2.006502</v>
+        <v>2.0065019999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>917.339000</v>
+        <v>917.33900000000006</v>
       </c>
       <c r="I26" s="1">
-        <v>-162.596000</v>
+        <v>-162.596</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>7233.615489</v>
+        <v>7233.6154889999998</v>
       </c>
       <c r="L26" s="1">
-        <v>2.009338</v>
+        <v>2.0093380000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>940.809000</v>
+        <v>940.80899999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.687000</v>
+        <v>-117.687</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>7243.962532</v>
+        <v>7243.9625319999996</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.012212</v>
+        <v>2.0122119999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>947.420000</v>
+        <v>947.42</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.705000</v>
+        <v>-102.705</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>7254.024341</v>
+        <v>7254.0243410000003</v>
       </c>
       <c r="V26" s="1">
-        <v>2.015007</v>
+        <v>2.0150070000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>954.145000</v>
+        <v>954.14499999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.133900</v>
+        <v>-89.133899999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>7264.551929</v>
+        <v>7264.5519290000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>2.017931</v>
+        <v>2.0179309999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.536000</v>
+        <v>961.53599999999994</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.754000</v>
+        <v>-79.754000000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>7274.657418</v>
+        <v>7274.6574179999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>2.020738</v>
+        <v>2.0207380000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.588000</v>
+        <v>966.58799999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.359700</v>
+        <v>-79.359700000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>7284.909758</v>
+        <v>7284.9097579999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>2.023586</v>
+        <v>2.0235859999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.550000</v>
+        <v>974.55</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.012800</v>
+        <v>-87.012799999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>7296.241822</v>
       </c>
       <c r="AP26" s="1">
-        <v>2.026734</v>
+        <v>2.0267339999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.723000</v>
+        <v>983.72299999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.777000</v>
+        <v>-101.777</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>7307.568004</v>
+        <v>7307.5680039999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>2.029880</v>
+        <v>2.0298799999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>995.013000</v>
+        <v>995.01300000000003</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.056000</v>
+        <v>-123.056</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>7318.343553</v>
+        <v>7318.3435529999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>2.032873</v>
+        <v>2.0328729999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB26" s="1">
-        <v>-141.593000</v>
+        <v>-141.59299999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>7329.373122</v>
       </c>
       <c r="BE26" s="1">
-        <v>2.035937</v>
+        <v>2.0359370000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG26" s="1">
-        <v>-225.579000</v>
+        <v>-225.57900000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>7340.449251</v>
       </c>
       <c r="BJ26" s="1">
-        <v>2.039014</v>
+        <v>2.0390139999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1127.360000</v>
+        <v>1127.3599999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.847000</v>
+        <v>-360.84699999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>7350.769014</v>
+        <v>7350.7690140000004</v>
       </c>
       <c r="BO26" s="1">
-        <v>2.041880</v>
+        <v>2.0418799999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1257.200000</v>
+        <v>1257.2</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-570.670000</v>
+        <v>-570.66999999999996</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>7361.967687</v>
+        <v>7361.9676870000003</v>
       </c>
       <c r="BT26" s="1">
         <v>2.044991</v>
       </c>
       <c r="BU26" s="1">
-        <v>1403.570000</v>
+        <v>1403.57</v>
       </c>
       <c r="BV26" s="1">
-        <v>-795.387000</v>
+        <v>-795.38699999999994</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>7372.897529</v>
+        <v>7372.8975289999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>2.048027</v>
+        <v>2.0480269999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1565.330000</v>
+        <v>1565.33</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1029.140000</v>
+        <v>-1029.1400000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>7386.000839</v>
+        <v>7386.0008390000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>2.051667</v>
+        <v>2.0516670000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1974.030000</v>
+        <v>1974.03</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1573.760000</v>
+        <v>-1573.76</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>